--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C181CF32-A1D0-42B1-B92C-8D4239712DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478C862-9440-480D-90DF-564D617983C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42150" yWindow="2920" windowWidth="22230" windowHeight="14240" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="39430" yWindow="1720" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="155">
   <si>
     <t>Main</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>Amazon Nova</t>
+  </si>
+  <si>
+    <t>Shipping</t>
   </si>
 </sst>
 </file>
@@ -819,16 +822,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>4532</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>33839</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>4532</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>33839</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>107462</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -843,8 +846,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22498186" y="0"/>
-          <a:ext cx="0" cy="17286410"/>
+          <a:off x="23138070" y="0"/>
+          <a:ext cx="0" cy="18351500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -877,7 +880,7 @@
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>30041</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>29307</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1526,13 +1529,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
-  <dimension ref="A1:EG102"/>
+  <dimension ref="A1:EG103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BC68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BT28" sqref="BT28"/>
+      <selection pane="bottomRight" activeCell="BS76" sqref="BS76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1926,8 +1929,7 @@
         <v>92887</v>
       </c>
       <c r="AJ3" s="2">
-        <f>+AF3*1.07</f>
-        <v>96335.310000000012</v>
+        <v>100068</v>
       </c>
       <c r="AK3" s="2">
         <f>+AG3*1.07</f>
@@ -2143,8 +2145,7 @@
         <v>33513</v>
       </c>
       <c r="AJ6" s="2">
-        <f>+AF6*1.07</f>
-        <v>33879.410000000003</v>
+        <v>36761</v>
       </c>
       <c r="AK6" s="2">
         <f>+AG6*1.07</f>
@@ -2360,8 +2361,7 @@
         <v>29267</v>
       </c>
       <c r="AJ9" s="4">
-        <f>+AF9*1.1</f>
-        <v>28909.100000000002</v>
+        <v>30873</v>
       </c>
       <c r="AK9" s="4">
         <f>+AG9*1.1</f>
@@ -2412,27 +2412,27 @@
       </c>
       <c r="BR9" s="2">
         <f>SUM(AI9:AL9)</f>
-        <v>120037.90000000001</v>
+        <v>122001.8</v>
       </c>
       <c r="BS9" s="2">
         <f>+BR9*1.2</f>
-        <v>144045.48000000001</v>
+        <v>146402.16</v>
       </c>
       <c r="BT9" s="2">
         <f>+BS9*1.2</f>
-        <v>172854.576</v>
+        <v>175682.592</v>
       </c>
       <c r="BU9" s="2">
         <f>+BT9*1.15</f>
-        <v>198782.76239999998</v>
+        <v>202034.98079999999</v>
       </c>
       <c r="BV9" s="2">
         <f>+BU9*1.1</f>
-        <v>218661.03863999998</v>
+        <v>222238.47888000001</v>
       </c>
       <c r="BW9" s="2">
         <f>+BV9*1.1</f>
-        <v>240527.14250399999</v>
+        <v>244462.32676800003</v>
       </c>
     </row>
     <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2524,6 +2524,9 @@
       <c r="AI11" s="2">
         <v>57407</v>
       </c>
+      <c r="AJ11" s="2">
+        <v>61485</v>
+      </c>
       <c r="BK11" s="2">
         <f>26939+27165+29061+39822</f>
         <v>122987</v>
@@ -2666,6 +2669,9 @@
       <c r="AI12" s="2">
         <v>5533</v>
       </c>
+      <c r="AJ12" s="2">
+        <v>5595</v>
+      </c>
       <c r="BK12" s="2">
         <f>4263+4312+4248+4401</f>
         <v>17224</v>
@@ -2808,6 +2814,9 @@
       <c r="AI13" s="2">
         <v>36512</v>
       </c>
+      <c r="AJ13" s="2">
+        <v>40348</v>
+      </c>
       <c r="BK13" s="2">
         <f>9265+9702+10395+13383</f>
         <v>42745</v>
@@ -2939,16 +2948,19 @@
         <v>11824</v>
       </c>
       <c r="AF14" s="4">
-        <v>10866</v>
+        <v>12771</v>
       </c>
       <c r="AG14" s="4">
-        <v>11278</v>
+        <v>14331</v>
       </c>
       <c r="AH14" s="2">
         <v>17288</v>
       </c>
       <c r="AI14" s="2">
         <v>13921</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>15694</v>
       </c>
       <c r="BK14" s="2">
         <f>3102+3408+3698+3959</f>
@@ -2976,31 +2988,31 @@
       </c>
       <c r="BQ14" s="2">
         <f t="shared" si="6"/>
-        <v>51256</v>
+        <v>56214</v>
       </c>
       <c r="BR14" s="2">
         <f t="shared" ref="BR14:BT14" si="10">+BQ14*1.1</f>
-        <v>56381.600000000006</v>
+        <v>61835.4</v>
       </c>
       <c r="BS14" s="2">
         <f t="shared" si="10"/>
-        <v>62019.760000000009</v>
+        <v>68018.94</v>
       </c>
       <c r="BT14" s="2">
         <f t="shared" si="10"/>
-        <v>68221.736000000019</v>
+        <v>74820.834000000003</v>
       </c>
       <c r="BU14" s="2">
         <f t="shared" ref="BU14:BW14" si="11">+BT14*1.05</f>
-        <v>71632.822800000024</v>
+        <v>78561.875700000004</v>
       </c>
       <c r="BV14" s="2">
         <f t="shared" si="11"/>
-        <v>75214.463940000031</v>
+        <v>82489.969485000009</v>
       </c>
       <c r="BW14" s="2">
         <f t="shared" si="11"/>
-        <v>78975.18713700003</v>
+        <v>86614.467959250018</v>
       </c>
     </row>
     <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3081,16 +3093,19 @@
         <v>10722</v>
       </c>
       <c r="AF15" s="4">
-        <v>12771</v>
+        <v>10866</v>
       </c>
       <c r="AG15" s="4">
-        <v>14331</v>
+        <v>11278</v>
       </c>
       <c r="AH15" s="2">
         <v>11508</v>
       </c>
       <c r="AI15" s="2">
         <v>11715</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>12208</v>
       </c>
       <c r="BK15" s="2">
         <f>2031+2194+2495+3388</f>
@@ -3118,31 +3133,31 @@
       </c>
       <c r="BQ15" s="2">
         <f t="shared" si="6"/>
-        <v>49332</v>
+        <v>44374</v>
       </c>
       <c r="BR15" s="2">
         <f t="shared" ref="BR15:BT15" si="12">+BQ15*1.1</f>
-        <v>54265.200000000004</v>
+        <v>48811.4</v>
       </c>
       <c r="BS15" s="2">
         <f t="shared" si="12"/>
-        <v>59691.720000000008</v>
+        <v>53692.540000000008</v>
       </c>
       <c r="BT15" s="2">
         <f t="shared" si="12"/>
-        <v>65660.892000000022</v>
+        <v>59061.794000000016</v>
       </c>
       <c r="BU15" s="2">
         <f t="shared" ref="BU15:BW15" si="13">+BT15*1.05</f>
-        <v>68943.93660000003</v>
+        <v>62014.88370000002</v>
       </c>
       <c r="BV15" s="2">
         <f t="shared" si="13"/>
-        <v>72391.133430000031</v>
+        <v>65115.627885000024</v>
       </c>
       <c r="BW15" s="2">
         <f t="shared" si="13"/>
-        <v>76010.690101500033</v>
+        <v>68371.409279250031</v>
       </c>
     </row>
     <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3232,6 +3247,9 @@
       <c r="AI16" s="2">
         <v>1312</v>
       </c>
+      <c r="AJ16" s="2">
+        <v>1499</v>
+      </c>
       <c r="BL16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3374,6 +3392,9 @@
       <c r="AI18" s="2">
         <v>63970</v>
       </c>
+      <c r="AJ18" s="2">
+        <v>68246</v>
+      </c>
       <c r="BJ18" s="2">
         <v>118573</v>
       </c>
@@ -3493,6 +3514,9 @@
       </c>
       <c r="AI19" s="2">
         <v>91697</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>99456</v>
       </c>
       <c r="BJ19" s="2">
         <v>59293</v>
@@ -3641,8 +3665,8 @@
         <v>155667</v>
       </c>
       <c r="AJ20" s="6">
-        <f>+AF20*1.1</f>
-        <v>162775.80000000002</v>
+        <f>+AJ18+AJ19</f>
+        <v>167702</v>
       </c>
       <c r="AK20" s="6">
         <f>+AG20*1.1</f>
@@ -3755,27 +3779,27 @@
       </c>
       <c r="BR20" s="5">
         <f t="shared" ref="BR20:BW20" si="28">SUM(BR9:BR16)</f>
-        <v>681990.45</v>
+        <v>683954.35000000009</v>
       </c>
       <c r="BS20" s="5">
         <f t="shared" si="28"/>
-        <v>739627.99750000006</v>
+        <v>741984.67749999999</v>
       </c>
       <c r="BT20" s="5">
         <f t="shared" si="28"/>
-        <v>804301.79337500012</v>
+        <v>807129.80937500019</v>
       </c>
       <c r="BU20" s="5">
         <f t="shared" si="28"/>
-        <v>861802.34064375027</v>
+        <v>865054.55904375017</v>
       </c>
       <c r="BV20" s="5">
         <f t="shared" si="28"/>
-        <v>914831.5957959377</v>
+        <v>918409.03603593772</v>
       </c>
       <c r="BW20" s="5">
         <f t="shared" si="28"/>
-        <v>971506.22751773451</v>
+        <v>975441.41178173455</v>
       </c>
     </row>
     <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3867,6 +3891,9 @@
       <c r="AI21" s="2">
         <v>76976</v>
       </c>
+      <c r="AJ21" s="2">
+        <v>80809</v>
+      </c>
       <c r="AT21" s="2">
         <v>2323.875</v>
       </c>
@@ -3917,27 +3944,27 @@
       </c>
       <c r="BR21" s="4">
         <f t="shared" si="29"/>
-        <v>440514.13</v>
+        <v>441888.86000000004</v>
       </c>
       <c r="BS21" s="4">
         <f t="shared" si="29"/>
-        <v>475143.81600000005</v>
+        <v>476793.49200000003</v>
       </c>
       <c r="BT21" s="4">
         <f t="shared" si="29"/>
-        <v>514025.78220000013</v>
+        <v>516005.39340000012</v>
       </c>
       <c r="BU21" s="4">
         <f t="shared" si="29"/>
-        <v>551826.89163000009</v>
+        <v>554103.44451000006</v>
       </c>
       <c r="BV21" s="4">
         <f t="shared" si="29"/>
-        <v>586375.63289550005</v>
+        <v>588879.84106350003</v>
       </c>
       <c r="BW21" s="4">
         <f t="shared" si="29"/>
-        <v>623347.55089267506</v>
+        <v>626102.17987747514</v>
       </c>
     </row>
     <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4028,6 +4055,9 @@
       </c>
       <c r="AI22" s="2">
         <v>24593</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>25976</v>
       </c>
       <c r="AT22" s="2">
         <v>798.55799999999999</v>
@@ -4217,12 +4247,12 @@
         <f>AI20-AI21-AI22</f>
         <v>54098</v>
       </c>
-      <c r="AJ23" s="2">
-        <f t="shared" ref="AJ23:AL23" si="38">+AJ20*0.34</f>
-        <v>55343.772000000012</v>
+      <c r="AJ23" s="4">
+        <f>AJ20-AJ21-AJ22</f>
+        <v>60917</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AK23:AL23" si="38">+AK20*0.34</f>
         <v>59419.998000000007</v>
       </c>
       <c r="AL23" s="2">
@@ -4287,27 +4317,27 @@
       </c>
       <c r="BR23" s="4">
         <f t="shared" si="41"/>
-        <v>199142.94499999995</v>
+        <v>199732.11500000005</v>
       </c>
       <c r="BS23" s="4">
         <f t="shared" si="41"/>
-        <v>220034.13774999999</v>
+        <v>220741.14174999995</v>
       </c>
       <c r="BT23" s="4">
         <f t="shared" si="41"/>
-        <v>243603.46523749997</v>
+        <v>244451.87003750005</v>
       </c>
       <c r="BU23" s="4">
         <f t="shared" si="41"/>
-        <v>260969.27577937517</v>
+        <v>261944.94129937509</v>
       </c>
       <c r="BV23" s="4">
         <f t="shared" si="41"/>
-        <v>276999.48100434389</v>
+        <v>278072.71307634393</v>
       </c>
       <c r="BW23" s="4">
         <f t="shared" si="41"/>
-        <v>294129.37063416099</v>
+        <v>295309.92591336096</v>
       </c>
     </row>
     <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4400,6 +4430,9 @@
         <f>+AE24*1.07</f>
         <v>21853.68</v>
       </c>
+      <c r="AJ24" s="2">
+        <v>27166</v>
+      </c>
       <c r="AT24" s="2">
         <v>241.16499999999999</v>
       </c>
@@ -4563,6 +4596,9 @@
         <f>+AE25*1.07</f>
         <v>10338.34</v>
       </c>
+      <c r="AJ25" s="2">
+        <v>11416</v>
+      </c>
       <c r="AT25" s="2">
         <v>138.28299999999999</v>
       </c>
@@ -4726,6 +4762,9 @@
       <c r="AI26" s="2">
         <f>+AE26*1.07</f>
         <v>2933.94</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>2965</v>
       </c>
       <c r="AT26" s="2">
         <v>89.861999999999995</v>
@@ -4917,7 +4956,7 @@
       </c>
       <c r="AJ27" s="4">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>41547</v>
       </c>
       <c r="AK27" s="4">
         <f t="shared" si="52"/>
@@ -5125,7 +5164,7 @@
       </c>
       <c r="AJ28" s="4">
         <f t="shared" si="67"/>
-        <v>55343.772000000012</v>
+        <v>19370</v>
       </c>
       <c r="AK28" s="4">
         <f t="shared" si="67"/>
@@ -5193,27 +5232,27 @@
       </c>
       <c r="BR28" s="4">
         <f t="shared" si="73"/>
-        <v>48698.837799999921</v>
+        <v>49288.007800000021</v>
       </c>
       <c r="BS28" s="4">
         <f t="shared" si="73"/>
-        <v>65076.707333999977</v>
+        <v>65783.711333999934</v>
       </c>
       <c r="BT28" s="4">
         <f t="shared" si="73"/>
-        <v>83997.311909019947</v>
+        <v>84845.716709020024</v>
       </c>
       <c r="BU28" s="4">
         <f t="shared" si="73"/>
-        <v>96574.93785104074</v>
+        <v>97550.603371040663</v>
       </c>
       <c r="BV28" s="4">
         <f t="shared" si="73"/>
-        <v>107673.31293815942</v>
+        <v>108746.54501015946</v>
       </c>
       <c r="BW28" s="4">
         <f t="shared" si="73"/>
-        <v>119723.41752599101</v>
+        <v>120903.97280519098</v>
       </c>
     </row>
     <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5327,9 +5366,9 @@
         <f>-176+1248-570+468</f>
         <v>970</v>
       </c>
-      <c r="AI29" s="2">
-        <f>+AH29</f>
-        <v>970</v>
+      <c r="AJ29" s="2">
+        <f>-199+1085-516+1117</f>
+        <v>1487</v>
       </c>
       <c r="AT29" s="2">
         <f>29.103-139.232</f>
@@ -5393,23 +5432,23 @@
       </c>
       <c r="BS29" s="2">
         <f t="shared" si="74"/>
-        <v>903.85933629999931</v>
+        <v>908.86728130000017</v>
       </c>
       <c r="BT29" s="2">
         <f t="shared" si="74"/>
-        <v>1464.6941529975491</v>
+        <v>1475.7541995300498</v>
       </c>
       <c r="BU29" s="2">
         <f t="shared" si="74"/>
-        <v>2191.121204524698</v>
+        <v>2209.4867022527255</v>
       </c>
       <c r="BV29" s="2">
         <f t="shared" si="74"/>
-        <v>3030.6327064970042</v>
+        <v>3057.4474678757192</v>
       </c>
       <c r="BW29" s="2">
         <f t="shared" si="74"/>
-        <v>3971.6162444765841</v>
+        <v>4007.7814039390187</v>
       </c>
     </row>
     <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5525,11 +5564,11 @@
       </c>
       <c r="AI30" s="4">
         <f t="shared" si="81"/>
-        <v>19942.04</v>
+        <v>18972.04</v>
       </c>
       <c r="AJ30" s="4">
         <f t="shared" si="81"/>
-        <v>55343.772000000012</v>
+        <v>20857</v>
       </c>
       <c r="AK30" s="4">
         <f t="shared" si="81"/>
@@ -5597,27 +5636,27 @@
       </c>
       <c r="BR30" s="4">
         <f t="shared" si="85"/>
-        <v>49184.627799999922</v>
+        <v>49773.797800000022</v>
       </c>
       <c r="BS30" s="4">
         <f t="shared" si="85"/>
-        <v>65980.566670299973</v>
+        <v>66692.578615299935</v>
       </c>
       <c r="BT30" s="4">
         <f t="shared" si="85"/>
-        <v>85462.006062017492</v>
+        <v>86321.47090855008</v>
       </c>
       <c r="BU30" s="4">
         <f t="shared" si="85"/>
-        <v>98766.059055565434</v>
+        <v>99760.090073293395</v>
       </c>
       <c r="BV30" s="4">
         <f t="shared" si="85"/>
-        <v>110703.94564465643</v>
+        <v>111803.99247803519</v>
       </c>
       <c r="BW30" s="4">
         <f t="shared" si="85"/>
-        <v>123695.03377046759</v>
+        <v>124911.75420913</v>
       </c>
     </row>
     <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5729,7 +5768,11 @@
       </c>
       <c r="AI31" s="2">
         <f>+AI30*0.1</f>
-        <v>1994.2040000000002</v>
+        <v>1897.2040000000002</v>
+      </c>
+      <c r="AJ31" s="2">
+        <f>2678+15</f>
+        <v>2693</v>
       </c>
       <c r="AT31" s="2">
         <v>0</v>
@@ -5786,27 +5829,27 @@
       </c>
       <c r="BR31" s="2">
         <f t="shared" ref="BR31:BW31" si="86">+BR30*0.15</f>
-        <v>7377.6941699999879</v>
+        <v>7466.0696700000026</v>
       </c>
       <c r="BS31" s="2">
         <f t="shared" si="86"/>
-        <v>9897.0850005449956</v>
+        <v>10003.88679229499</v>
       </c>
       <c r="BT31" s="2">
         <f t="shared" si="86"/>
-        <v>12819.300909302623</v>
+        <v>12948.220636282511</v>
       </c>
       <c r="BU31" s="2">
         <f t="shared" si="86"/>
-        <v>14814.908858334815</v>
+        <v>14964.013510994009</v>
       </c>
       <c r="BV31" s="2">
         <f t="shared" si="86"/>
-        <v>16605.591846698462</v>
+        <v>16770.598871705279</v>
       </c>
       <c r="BW31" s="2">
         <f t="shared" si="86"/>
-        <v>18554.255065570138</v>
+        <v>18736.763131369498</v>
       </c>
     </row>
     <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5922,11 +5965,11 @@
       </c>
       <c r="AI32" s="4">
         <f t="shared" si="93"/>
-        <v>17947.835999999999</v>
+        <v>17074.835999999999</v>
       </c>
       <c r="AJ32" s="4">
         <f t="shared" si="93"/>
-        <v>55343.772000000012</v>
+        <v>18164</v>
       </c>
       <c r="AK32" s="4">
         <f t="shared" si="93"/>
@@ -5994,275 +6037,275 @@
       </c>
       <c r="BR32" s="4">
         <f t="shared" si="98"/>
-        <v>41806.933629999934</v>
+        <v>42307.728130000018</v>
       </c>
       <c r="BS32" s="4">
         <f t="shared" si="98"/>
-        <v>56083.481669754976</v>
+        <v>56688.691823004949</v>
       </c>
       <c r="BT32" s="4">
         <f t="shared" si="98"/>
-        <v>72642.705152714872</v>
+        <v>73373.250272267571</v>
       </c>
       <c r="BU32" s="4">
         <f t="shared" si="98"/>
-        <v>83951.150197230614</v>
+        <v>84796.076562299393</v>
       </c>
       <c r="BV32" s="4">
         <f t="shared" si="98"/>
-        <v>94098.353797957971</v>
+        <v>95033.393606329904</v>
       </c>
       <c r="BW32" s="4">
         <f t="shared" si="98"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="BX32" s="2">
         <f>+BW32*(1+$BZ$47)</f>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="BY32" s="2">
         <f t="shared" ref="BY32:EG32" si="99">+BX32*(1+$BZ$47)</f>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="BZ32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CA32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CB32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CC32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CD32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CE32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CF32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CG32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CH32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CI32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CJ32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CK32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CL32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CM32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CN32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CO32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CP32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CQ32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CR32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CS32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CT32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CU32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CV32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CW32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CX32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CY32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="CZ32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DA32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DB32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DC32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DD32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DE32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DF32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DG32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DH32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DI32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DJ32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DK32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DL32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DM32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DN32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DO32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DP32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DQ32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DR32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DS32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DT32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DU32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DV32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DW32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DX32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DY32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="DZ32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="EA32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="EB32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="EC32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="ED32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="EE32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="EF32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
       <c r="EG32" s="2">
         <f t="shared" si="99"/>
-        <v>105140.77870489746</v>
+        <v>106174.9910777605</v>
       </c>
     </row>
     <row r="33" spans="2:78" x14ac:dyDescent="0.25">
@@ -6378,19 +6421,19 @@
       </c>
       <c r="AI33" s="7">
         <f t="shared" si="106"/>
-        <v>1.6629144816084498</v>
+        <v>1.5820287223200222</v>
       </c>
       <c r="AJ33" s="7">
         <f t="shared" si="106"/>
-        <v>5.1277468729732245</v>
+        <v>1.6809180085137887</v>
       </c>
       <c r="AK33" s="7">
         <f t="shared" si="106"/>
-        <v>5.5054199944408415</v>
+        <v>5.4987967795669075</v>
       </c>
       <c r="AL33" s="7">
         <f t="shared" si="106"/>
-        <v>6.5073851570462349</v>
+        <v>6.4995565426614856</v>
       </c>
       <c r="AT33" s="1">
         <f>AT32/AT34</f>
@@ -6450,27 +6493,27 @@
       </c>
       <c r="BR33" s="7">
         <f t="shared" ref="BR33" si="114">BR32/BR34</f>
-        <v>3.8735229899008554</v>
+        <v>3.9163850065955446</v>
       </c>
       <c r="BS33" s="7">
         <f t="shared" ref="BS33" si="115">BS32/BS34</f>
-        <v>5.196282930580467</v>
+        <v>5.2476167478655853</v>
       </c>
       <c r="BT33" s="7">
         <f t="shared" ref="BT33" si="116">BT32/BT34</f>
-        <v>6.730538789281467</v>
+        <v>6.79209000229271</v>
       </c>
       <c r="BU33" s="7">
         <f t="shared" ref="BU33" si="117">BU32/BU34</f>
-        <v>7.7782961361281027</v>
+        <v>7.8494898578879813</v>
       </c>
       <c r="BV33" s="7">
         <f t="shared" ref="BV33" si="118">BV32/BV34</f>
-        <v>8.7184613914535323</v>
+        <v>8.7971482822734863</v>
       </c>
       <c r="BW33" s="7">
         <f t="shared" ref="BW33" si="119">BW32/BW34</f>
-        <v>9.7415712688684764</v>
+        <v>9.8285150612353789</v>
       </c>
     </row>
     <row r="34" spans="2:78" x14ac:dyDescent="0.25">
@@ -6556,16 +6599,15 @@
         <v>10793</v>
       </c>
       <c r="AJ34" s="2">
-        <f>+AI34</f>
-        <v>10793</v>
+        <v>10806</v>
       </c>
       <c r="AK34" s="2">
         <f>+AJ34</f>
-        <v>10793</v>
+        <v>10806</v>
       </c>
       <c r="AL34" s="2">
         <f>+AK34</f>
-        <v>10793</v>
+        <v>10806</v>
       </c>
       <c r="AR34" s="2">
         <v>161.096869</v>
@@ -6620,27 +6662,27 @@
       </c>
       <c r="BR34" s="2">
         <f>AVERAGE(AI34:AL34)</f>
-        <v>10793</v>
+        <v>10802.75</v>
       </c>
       <c r="BS34" s="2">
         <f t="shared" ref="BS34:BW34" si="120">+BR34</f>
-        <v>10793</v>
+        <v>10802.75</v>
       </c>
       <c r="BT34" s="2">
         <f t="shared" si="120"/>
-        <v>10793</v>
+        <v>10802.75</v>
       </c>
       <c r="BU34" s="2">
         <f t="shared" si="120"/>
-        <v>10793</v>
+        <v>10802.75</v>
       </c>
       <c r="BV34" s="2">
         <f t="shared" si="120"/>
-        <v>10793</v>
+        <v>10802.75</v>
       </c>
       <c r="BW34" s="2">
         <f t="shared" si="120"/>
-        <v>10793</v>
+        <v>10802.75</v>
       </c>
     </row>
     <row r="36" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -6748,7 +6790,7 @@
       </c>
       <c r="AJ36" s="10">
         <f t="shared" si="127"/>
-        <v>0.10000000000000009</v>
+        <v>0.13329008366108486</v>
       </c>
       <c r="AK36" s="10">
         <f t="shared" si="127"/>
@@ -6868,27 +6910,27 @@
       </c>
       <c r="BR36" s="15">
         <f t="shared" si="146"/>
-        <v>6.9019247318401256E-2</v>
+        <v>7.2097658313465374E-2</v>
       </c>
       <c r="BS36" s="15">
         <f t="shared" si="146"/>
-        <v>8.4513716431073416E-2</v>
+        <v>8.4845322644705679E-2</v>
       </c>
       <c r="BT36" s="15">
         <f t="shared" si="146"/>
-        <v>8.7440978564362837E-2</v>
+        <v>8.7798486748400739E-2</v>
       </c>
       <c r="BU36" s="15">
         <f t="shared" si="146"/>
-        <v>7.1491258309231309E-2</v>
+        <v>7.1766336710576972E-2</v>
       </c>
       <c r="BV36" s="15">
         <f t="shared" si="146"/>
-        <v>6.153296719126522E-2</v>
+        <v>6.167758603707818E-2</v>
       </c>
       <c r="BW36" s="15">
         <f t="shared" si="146"/>
-        <v>6.1950890177211004E-2</v>
+        <v>6.2099101280581381E-2</v>
       </c>
     </row>
     <row r="37" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -7076,7 +7118,7 @@
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="150"/>
-        <v>-1</v>
+        <v>0.10844743296139292</v>
       </c>
       <c r="AK38" s="8">
         <f t="shared" si="150"/>
@@ -7200,7 +7242,7 @@
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="156"/>
-        <v>-1</v>
+        <v>0.15099121619275779</v>
       </c>
       <c r="AK39" s="8">
         <f t="shared" si="156"/>
@@ -7323,7 +7365,7 @@
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="163"/>
-        <v>-1</v>
+        <v>0.10999783362218363</v>
       </c>
       <c r="AK40" s="8">
         <f t="shared" si="163"/>
@@ -7477,7 +7519,7 @@
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="169"/>
-        <v>-1</v>
+        <v>0.1145548465512003</v>
       </c>
       <c r="AK41" s="8">
         <f t="shared" si="169"/>
@@ -7615,11 +7657,11 @@
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="169"/>
-        <v>9.824135839902981E-2</v>
+        <v>0.29078229229836272</v>
       </c>
       <c r="AG42" s="8">
         <f t="shared" si="169"/>
-        <v>0.10894788593903648</v>
+        <v>0.40914454277286127</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="169"/>
@@ -7631,7 +7673,7 @@
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="169"/>
-        <v>-1</v>
+        <v>0.22887792655234507</v>
       </c>
       <c r="AK42" s="8">
         <f t="shared" si="169"/>
@@ -7664,7 +7706,7 @@
       </c>
       <c r="BQ42" s="13">
         <f t="shared" si="177"/>
-        <v>0.27473948618468502</v>
+        <v>0.39804521375811386</v>
       </c>
       <c r="BR42" s="13">
         <f t="shared" si="177"/>
@@ -7769,11 +7811,11 @@
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="169"/>
-        <v>0.19545071609098574</v>
+        <v>1.7130019657399576E-2</v>
       </c>
       <c r="AG43" s="8">
         <f t="shared" si="169"/>
-        <v>0.18830845771144289</v>
+        <v>-6.4842454394693161E-2</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="169"/>
@@ -7785,7 +7827,7 @@
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="169"/>
-        <v>-1</v>
+        <v>0.12350450947910918</v>
       </c>
       <c r="AK43" s="8">
         <f t="shared" si="169"/>
@@ -7818,7 +7860,7 @@
       </c>
       <c r="BQ43" s="13">
         <f t="shared" si="181"/>
-        <v>5.1720462200997686E-2</v>
+        <v>-5.3980301027587108E-2</v>
       </c>
       <c r="BR43" s="13">
         <f t="shared" si="181"/>
@@ -7830,7 +7872,7 @@
       </c>
       <c r="BT43" s="13">
         <f t="shared" si="181"/>
-        <v>0.10000000000000031</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="BU43" s="13">
         <f t="shared" si="181"/>
@@ -7939,7 +7981,7 @@
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="191"/>
-        <v>0.10000000000000009</v>
+        <v>0.17472698907956308</v>
       </c>
       <c r="AK44" s="8">
         <f t="shared" si="191"/>
@@ -7991,7 +8033,7 @@
       </c>
       <c r="BR44" s="13">
         <f t="shared" si="196"/>
-        <v>0.11605024359403471</v>
+        <v>0.13430956896872326</v>
       </c>
       <c r="BS44" s="13">
         <f t="shared" si="196"/>
@@ -8130,8 +8172,8 @@
         <v>0.34752388110517962</v>
       </c>
       <c r="AJ45" s="16">
-        <f t="shared" si="200"/>
-        <v>0.34</v>
+        <f>AJ23/AJ20</f>
+        <v>0.36324551883698464</v>
       </c>
       <c r="AK45" s="16">
         <f t="shared" si="200"/>
@@ -8187,27 +8229,27 @@
       </c>
       <c r="BR45" s="14">
         <f t="shared" si="205"/>
-        <v>0.29200254197107889</v>
+        <v>0.29202550579581815</v>
       </c>
       <c r="BS45" s="14">
         <f t="shared" si="205"/>
-        <v>0.29749298092248055</v>
+        <v>0.29750094367683211</v>
       </c>
       <c r="BT45" s="14">
         <f t="shared" si="205"/>
-        <v>0.30287569572025252</v>
+        <v>0.3028656198769204</v>
       </c>
       <c r="BU45" s="14">
         <f t="shared" si="205"/>
-        <v>0.30281801693000276</v>
+        <v>0.30280742244620346</v>
       </c>
       <c r="BV45" s="14">
         <f t="shared" si="205"/>
-        <v>0.30278740073832278</v>
+        <v>0.302776543093009</v>
       </c>
       <c r="BW45" s="14">
         <f t="shared" si="205"/>
-        <v>0.302756032131345</v>
+        <v>0.30274491358117539</v>
       </c>
       <c r="BY45" t="s">
         <v>77</v>
@@ -8312,7 +8354,10 @@
         <f>+AI48-AI61</f>
         <v>41191</v>
       </c>
-      <c r="AJ47" s="4"/>
+      <c r="AJ47" s="4">
+        <f>+AJ48-AJ61</f>
+        <v>42462</v>
+      </c>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
@@ -8333,27 +8378,27 @@
       </c>
       <c r="BR47" s="2">
         <f t="shared" ref="BR47:BW47" si="211">+BQ47+BR32</f>
-        <v>90385.933629999927</v>
+        <v>90886.728130000018</v>
       </c>
       <c r="BS47" s="2">
         <f t="shared" si="211"/>
-        <v>146469.41529975491</v>
+        <v>147575.41995300498</v>
       </c>
       <c r="BT47" s="2">
         <f t="shared" si="211"/>
-        <v>219112.1204524698</v>
+        <v>220948.67022527254</v>
       </c>
       <c r="BU47" s="2">
         <f t="shared" si="211"/>
-        <v>303063.27064970043</v>
+        <v>305744.74678757193</v>
       </c>
       <c r="BV47" s="2">
         <f t="shared" si="211"/>
-        <v>397161.62444765843</v>
+        <v>400778.14039390185</v>
       </c>
       <c r="BW47" s="2">
         <f t="shared" si="211"/>
-        <v>502302.40315255587</v>
+        <v>506953.13147166232</v>
       </c>
       <c r="BY47" t="s">
         <v>78</v>
@@ -8462,6 +8507,10 @@
         <f>66207+28358</f>
         <v>94565</v>
       </c>
+      <c r="AJ48" s="2">
+        <f>57741+35439</f>
+        <v>93180</v>
+      </c>
       <c r="BO48" s="2">
         <f>+Z48</f>
         <v>70026</v>
@@ -8479,7 +8528,7 @@
       </c>
       <c r="BZ48" s="2">
         <f>NPV(BZ45,BR32:EI32)+Main!K5-Main!K6</f>
-        <v>1198848.8563311039</v>
+        <v>1210398.1413828339</v>
       </c>
     </row>
     <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8561,6 +8610,9 @@
       <c r="AI49" s="2">
         <v>35864</v>
       </c>
+      <c r="AJ49" s="2">
+        <v>57415</v>
+      </c>
       <c r="BO49" s="2">
         <f t="shared" ref="BO49:BO54" si="212">+Z49</f>
         <v>34405</v>
@@ -8575,7 +8627,7 @@
       </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
-        <v>111.07651777365922</v>
+        <v>112.1465895842522</v>
       </c>
     </row>
     <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8657,6 +8709,9 @@
       <c r="AI50" s="2">
         <v>54216</v>
       </c>
+      <c r="AJ50" s="2">
+        <v>40825</v>
+      </c>
       <c r="BO50" s="2">
         <f t="shared" si="212"/>
         <v>42360</v>
@@ -8749,6 +8804,9 @@
       <c r="AI51" s="2">
         <v>272781</v>
       </c>
+      <c r="AJ51" s="2">
+        <v>297616</v>
+      </c>
       <c r="BO51" s="2">
         <f t="shared" si="212"/>
         <v>186715</v>
@@ -8841,6 +8899,9 @@
       <c r="AI52" s="2">
         <v>78495</v>
       </c>
+      <c r="AJ52" s="2">
+        <v>82125</v>
+      </c>
       <c r="BO52" s="2">
         <f t="shared" si="212"/>
         <v>66123</v>
@@ -8934,6 +8995,9 @@
       <c r="AI53" s="2">
         <v>23089</v>
       </c>
+      <c r="AJ53" s="2">
+        <v>23155</v>
+      </c>
       <c r="BO53" s="2">
         <f t="shared" si="212"/>
         <v>20288</v>
@@ -9025,6 +9089,9 @@
       </c>
       <c r="AI54" s="2">
         <v>84246</v>
+      </c>
+      <c r="AJ54" s="2">
+        <v>87854</v>
       </c>
       <c r="BO54" s="2">
         <f t="shared" si="212"/>
@@ -9120,7 +9187,7 @@
         <v>527854</v>
       </c>
       <c r="AE55" s="4">
-        <f t="shared" ref="AE55:AI55" si="219">SUM(AE48:AE54)</f>
+        <f t="shared" ref="AE55:AJ55" si="219">SUM(AE48:AE54)</f>
         <v>530969</v>
       </c>
       <c r="AF55" s="4">
@@ -9138,6 +9205,10 @@
       <c r="AI55" s="4">
         <f t="shared" si="219"/>
         <v>643256</v>
+      </c>
+      <c r="AJ55" s="4">
+        <f t="shared" si="219"/>
+        <v>682170</v>
       </c>
       <c r="BO55" s="2">
         <f>SUM(BO48:BO54)</f>
@@ -9231,6 +9302,9 @@
       <c r="AI57" s="2">
         <v>89241</v>
       </c>
+      <c r="AJ57" s="2">
+        <v>98285</v>
+      </c>
       <c r="BO57" s="2">
         <f t="shared" ref="BO57:BO63" si="220">+Z57</f>
         <v>79600</v>
@@ -9323,6 +9397,9 @@
       <c r="AI58" s="2">
         <v>66331</v>
       </c>
+      <c r="AJ58" s="2">
+        <v>66974</v>
+      </c>
       <c r="BO58" s="2">
         <f t="shared" si="220"/>
         <v>62566</v>
@@ -9415,6 +9492,9 @@
       <c r="AI59" s="2">
         <v>20599</v>
       </c>
+      <c r="AJ59" s="2">
+        <v>21662</v>
+      </c>
       <c r="BO59" s="2">
         <f t="shared" si="220"/>
         <v>13227</v>
@@ -9507,6 +9587,9 @@
       <c r="AI60" s="2">
         <v>79871</v>
       </c>
+      <c r="AJ60" s="2">
+        <v>83221</v>
+      </c>
       <c r="BO60" s="2">
         <f t="shared" si="220"/>
         <v>72968</v>
@@ -9599,6 +9682,9 @@
       <c r="AI61" s="2">
         <v>53374</v>
       </c>
+      <c r="AJ61" s="2">
+        <v>50718</v>
+      </c>
       <c r="BO61" s="2">
         <f t="shared" si="220"/>
         <v>67150</v>
@@ -9691,6 +9777,9 @@
       <c r="AI62" s="2">
         <v>27973</v>
       </c>
+      <c r="AJ62" s="2">
+        <v>27535</v>
+      </c>
       <c r="BO62" s="2">
         <f t="shared" si="220"/>
         <v>21121</v>
@@ -9782,6 +9871,9 @@
       </c>
       <c r="AI63" s="2">
         <v>305867</v>
+      </c>
+      <c r="AJ63" s="2">
+        <v>333775</v>
       </c>
       <c r="BO63" s="2">
         <f t="shared" si="220"/>
@@ -9896,6 +9988,10 @@
         <f>SUM(AI57:AI63)</f>
         <v>643256</v>
       </c>
+      <c r="AJ64" s="4">
+        <f>SUM(AJ57:AJ63)</f>
+        <v>682170</v>
+      </c>
       <c r="BO64" s="2">
         <f>SUM(BO57:BO63)</f>
         <v>462675</v>
@@ -9909,7 +10005,7 @@
         <v>624894</v>
       </c>
     </row>
-    <row r="66" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -10007,7 +10103,11 @@
       </c>
       <c r="AI66" s="4">
         <f>+AI32</f>
-        <v>17947.835999999999</v>
+        <v>17074.835999999999</v>
+      </c>
+      <c r="AJ66" s="4">
+        <f>+AJ32</f>
+        <v>18164</v>
       </c>
       <c r="BO66" s="2">
         <f>+BO32</f>
@@ -10022,7 +10122,7 @@
         <v>31503.311999999976</v>
       </c>
     </row>
-    <row r="67" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -10101,6 +10201,9 @@
       <c r="AI67" s="2">
         <v>17127</v>
       </c>
+      <c r="AJ67" s="2">
+        <v>18164</v>
+      </c>
       <c r="BO67" s="2">
         <f>SUM(W67:Z67)</f>
         <v>-2722</v>
@@ -10114,7 +10217,7 @@
         <v>59248</v>
       </c>
     </row>
-    <row r="68" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -10193,6 +10296,9 @@
       <c r="AI68" s="2">
         <v>14262</v>
       </c>
+      <c r="AJ68" s="2">
+        <v>15227</v>
+      </c>
       <c r="BO68" s="2">
         <f t="shared" ref="BO68:BO73" si="232">SUM(W68:Z68)</f>
         <v>41461</v>
@@ -10206,7 +10312,7 @@
         <v>52795</v>
       </c>
     </row>
-    <row r="69" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -10285,6 +10391,9 @@
       <c r="AI69" s="2">
         <v>3689</v>
       </c>
+      <c r="AJ69" s="2">
+        <v>6534</v>
+      </c>
       <c r="BO69" s="2">
         <f t="shared" si="232"/>
         <v>19621</v>
@@ -10298,7 +10407,7 @@
         <v>22011</v>
       </c>
     </row>
-    <row r="70" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -10377,6 +10486,9 @@
       <c r="AI70" s="2">
         <v>-2817</v>
       </c>
+      <c r="AJ70" s="2">
+        <v>-1258</v>
+      </c>
       <c r="BO70" s="2">
         <f t="shared" si="232"/>
         <v>3905</v>
@@ -10390,7 +10502,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="71" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -10467,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -10546,6 +10658,9 @@
       <c r="AI72" s="2">
         <v>507</v>
       </c>
+      <c r="AJ72" s="2">
+        <v>11</v>
+      </c>
       <c r="BO72" s="2">
         <f t="shared" si="232"/>
         <v>-8148</v>
@@ -10559,7 +10674,7 @@
         <v>-4648</v>
       </c>
     </row>
-    <row r="73" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -10659,6 +10774,10 @@
         <f>-1222+1247-3402-9043-4061+728</f>
         <v>-15753</v>
       </c>
+      <c r="AJ73" s="2">
+        <f>-4054-1125-2971+7058-4952-119</f>
+        <v>-6163</v>
+      </c>
       <c r="BO73" s="2">
         <f t="shared" si="232"/>
         <v>-20886</v>
@@ -10672,7 +10791,7 @@
         <v>-15541</v>
       </c>
     </row>
-    <row r="74" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -10701,7 +10820,7 @@
         <v>11964</v>
       </c>
       <c r="R74" s="4">
-        <f t="shared" ref="R74:AI74" si="235">SUM(R67:R73)</f>
+        <f t="shared" ref="R74:AJ74" si="235">SUM(R67:R73)</f>
         <v>30430</v>
       </c>
       <c r="S74" s="4">
@@ -10772,6 +10891,10 @@
         <f t="shared" si="235"/>
         <v>17015</v>
       </c>
+      <c r="AJ74" s="4">
+        <f t="shared" si="235"/>
+        <v>32515</v>
+      </c>
       <c r="AT74" s="2">
         <v>-119.782</v>
       </c>
@@ -10794,7 +10917,7 @@
         <v>115877</v>
       </c>
     </row>
-    <row r="75" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -10820,7 +10943,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -10899,6 +11022,17 @@
       <c r="AI76" s="2">
         <v>-25019</v>
       </c>
+      <c r="AJ76" s="2">
+        <v>-32183</v>
+      </c>
+      <c r="AK76" s="2">
+        <f>+AJ76</f>
+        <v>-32183</v>
+      </c>
+      <c r="AL76" s="2">
+        <f>+AK76</f>
+        <v>-32183</v>
+      </c>
       <c r="BO76" s="2">
         <f t="shared" ref="BO76:BO79" si="236">SUM(W76:Z76)</f>
         <v>-63645</v>
@@ -10911,8 +11045,12 @@
         <f t="shared" ref="BQ76:BQ79" si="237">SUM(AE76:AH76)</f>
         <v>-82999</v>
       </c>
+      <c r="BR76" s="2">
+        <f>SUM(AI76:AL76)</f>
+        <v>-121568</v>
+      </c>
     </row>
-    <row r="77" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -10991,6 +11129,9 @@
       <c r="AI77" s="2">
         <v>764</v>
       </c>
+      <c r="AJ77" s="2">
+        <v>815</v>
+      </c>
       <c r="BO77" s="2">
         <f t="shared" si="236"/>
         <v>5324</v>
@@ -11004,7 +11145,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="78" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -11083,6 +11224,9 @@
       <c r="AI78" s="2">
         <v>48</v>
       </c>
+      <c r="AJ78" s="2">
+        <v>-1700</v>
+      </c>
       <c r="BO78" s="2">
         <f t="shared" si="236"/>
         <v>-8316</v>
@@ -11096,7 +11240,7 @@
         <v>-7082</v>
       </c>
     </row>
-    <row r="79" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -11196,6 +11340,10 @@
         <f>7737-13333</f>
         <v>-5596</v>
       </c>
+      <c r="AJ79" s="2">
+        <f>11441-17797</f>
+        <v>-6356</v>
+      </c>
       <c r="BO79" s="2">
         <f t="shared" si="236"/>
         <v>29036</v>
@@ -11209,7 +11357,7 @@
         <v>-9602</v>
       </c>
     </row>
-    <row r="80" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
@@ -11238,7 +11386,7 @@
         <v>-15876</v>
       </c>
       <c r="R80" s="4">
-        <f t="shared" ref="R80:AI80" si="240">SUM(R76:R79)</f>
+        <f t="shared" ref="R80:AJ80" si="240">SUM(R76:R79)</f>
         <v>-17038</v>
       </c>
       <c r="S80" s="4">
@@ -11308,6 +11456,10 @@
       <c r="AI80" s="4">
         <f t="shared" si="240"/>
         <v>-29803</v>
+      </c>
+      <c r="AJ80" s="4">
+        <f t="shared" si="240"/>
+        <v>-39424</v>
       </c>
       <c r="BO80" s="2">
         <f>SUM(BO76:BO79)</f>
@@ -11427,6 +11579,9 @@
       <c r="AI82" s="2">
         <v>0</v>
       </c>
+      <c r="AJ82" s="2">
+        <v>0</v>
+      </c>
       <c r="BO82" s="2">
         <f t="shared" ref="BO82:BO85" si="241">SUM(W82:Z82)</f>
         <v>-6000</v>
@@ -11540,6 +11695,10 @@
         <f>1815-2082+746-410-116</f>
         <v>-47</v>
       </c>
+      <c r="AJ83" s="2">
+        <f>2093-1392-2751-411-78</f>
+        <v>-2539</v>
+      </c>
       <c r="BO83" s="2">
         <f t="shared" si="241"/>
         <v>15718</v>
@@ -11582,7 +11741,7 @@
         <v>-4105</v>
       </c>
       <c r="R84" s="4">
-        <f t="shared" ref="R84:AI84" si="245">SUM(R82:R83)</f>
+        <f t="shared" ref="R84:AJ84" si="245">SUM(R82:R83)</f>
         <v>-1816</v>
       </c>
       <c r="S84" s="4">
@@ -11652,6 +11811,10 @@
       <c r="AI84" s="4">
         <f t="shared" si="245"/>
         <v>-47</v>
+      </c>
+      <c r="AJ84" s="4">
+        <f t="shared" si="245"/>
+        <v>-2539</v>
       </c>
       <c r="BO84" s="2">
         <f>+BO83+BO82</f>
@@ -11744,6 +11907,9 @@
       </c>
       <c r="AI85" s="2">
         <v>416</v>
+      </c>
+      <c r="AJ85" s="2">
+        <v>1008</v>
       </c>
       <c r="BO85" s="2">
         <f t="shared" si="241"/>
@@ -11787,7 +11953,7 @@
         <v>-7640</v>
       </c>
       <c r="R86" s="4">
-        <f t="shared" ref="R86:AI86" si="247">+R85+R84+R80+R74</f>
+        <f t="shared" ref="R86:AJ86" si="247">+R85+R84+R80+R74</f>
         <v>12175</v>
       </c>
       <c r="S86" s="4">
@@ -11857,6 +12023,10 @@
       <c r="AI86" s="4">
         <f t="shared" si="247"/>
         <v>-12419</v>
+      </c>
+      <c r="AJ86" s="4">
+        <f t="shared" si="247"/>
+        <v>-8440</v>
       </c>
       <c r="BO86" s="2">
         <f>+BO85+BO84+BO80+BO74</f>
@@ -11959,6 +12129,9 @@
       </c>
       <c r="AI88" s="2">
         <v>1560</v>
+      </c>
+      <c r="AJ88" s="2">
+        <v>1546</v>
       </c>
       <c r="AQ88" s="2">
         <v>2.1</v>
@@ -12057,6 +12230,9 @@
       <c r="AI90" s="2">
         <v>5841</v>
       </c>
+      <c r="AJ90" s="2">
+        <v>7517</v>
+      </c>
     </row>
     <row r="91" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
@@ -12139,6 +12315,9 @@
       <c r="AI91" s="2">
         <v>1017</v>
       </c>
+      <c r="AJ91" s="2">
+        <v>1494</v>
+      </c>
     </row>
     <row r="92" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
@@ -12221,251 +12400,309 @@
       <c r="AI92" s="2">
         <v>11547</v>
       </c>
+      <c r="AJ92" s="2">
+        <v>10160</v>
+      </c>
     </row>
-    <row r="94" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+    <row r="93" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AE93" s="2">
+        <v>21834</v>
+      </c>
+      <c r="AF93" s="2">
+        <v>21965</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>23501</v>
+      </c>
+      <c r="AH93" s="2">
+        <v>28549</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>22495</v>
+      </c>
+      <c r="AJ93" s="2">
+        <v>23370</v>
+      </c>
+    </row>
+    <row r="95" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O94" s="4">
-        <f t="shared" ref="O94:W94" si="248">+O74+O76+O77</f>
+      <c r="O95" s="4">
+        <f t="shared" ref="O95:W95" si="248">+O74+O76+O77</f>
         <v>-2364</v>
       </c>
-      <c r="P94" s="4">
+      <c r="P95" s="4">
         <f t="shared" si="248"/>
         <v>13991</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="Q95" s="4">
         <f t="shared" si="248"/>
         <v>2156</v>
       </c>
-      <c r="R94" s="4">
+      <c r="R95" s="4">
         <f t="shared" si="248"/>
         <v>17235</v>
       </c>
-      <c r="S94" s="4">
+      <c r="S95" s="4">
         <f t="shared" si="248"/>
         <v>-6974</v>
       </c>
-      <c r="T94" s="4">
+      <c r="T95" s="4">
         <f t="shared" si="248"/>
         <v>-273</v>
       </c>
-      <c r="U94" s="4">
+      <c r="U95" s="4">
         <f t="shared" si="248"/>
         <v>-7438</v>
       </c>
-      <c r="V94" s="4">
+      <c r="V95" s="4">
         <f t="shared" si="248"/>
         <v>5616</v>
       </c>
-      <c r="W94" s="4">
+      <c r="W95" s="4">
         <f t="shared" si="248"/>
         <v>-16532</v>
       </c>
-      <c r="X94" s="4">
-        <f t="shared" ref="X94:Z94" si="249">+X74+X76+X77</f>
+      <c r="X95" s="4">
+        <f t="shared" ref="X95:Z95" si="249">+X74+X76+X77</f>
         <v>-5133</v>
       </c>
-      <c r="Y94" s="4">
+      <c r="Y95" s="4">
         <f t="shared" si="249"/>
         <v>-3637</v>
       </c>
-      <c r="Z94" s="4">
+      <c r="Z95" s="4">
         <f t="shared" si="249"/>
         <v>13733</v>
       </c>
-      <c r="AA94" s="4">
+      <c r="AA95" s="4">
         <f>+AA74+AA76+AA77</f>
         <v>-8282</v>
       </c>
-      <c r="AB94" s="4">
-        <f t="shared" ref="AB94:AE94" si="250">+AB74+AB76+AB77</f>
+      <c r="AB95" s="4">
+        <f t="shared" ref="AB95:AE95" si="250">+AB74+AB76+AB77</f>
         <v>6064</v>
       </c>
-      <c r="AC94" s="4">
+      <c r="AC95" s="4">
         <f t="shared" si="250"/>
         <v>9919</v>
       </c>
-      <c r="AD94" s="4">
+      <c r="AD95" s="4">
         <f t="shared" si="250"/>
         <v>29112</v>
       </c>
-      <c r="AE94" s="4">
+      <c r="AE95" s="4">
         <f t="shared" si="250"/>
         <v>5054</v>
       </c>
-      <c r="AF94" s="4">
-        <f t="shared" ref="AF94:AH94" si="251">+AF74+AF76+AF77</f>
+      <c r="AF95" s="4">
+        <f t="shared" ref="AF95:AH95" si="251">+AF74+AF76+AF77</f>
         <v>8888</v>
       </c>
-      <c r="AG94" s="4">
+      <c r="AG95" s="4">
         <f t="shared" si="251"/>
         <v>4693</v>
       </c>
-      <c r="AH94" s="4">
+      <c r="AH95" s="4">
         <f t="shared" si="251"/>
         <v>19584</v>
       </c>
-      <c r="AI94" s="4">
+      <c r="AI95" s="4">
         <f>+AI74+AI76+AI77</f>
         <v>-7240</v>
       </c>
-      <c r="BP94" s="2">
+      <c r="AJ95" s="4">
+        <f>+AJ74+AJ76+AJ77</f>
+        <v>1147</v>
+      </c>
+      <c r="BP95" s="2">
         <f>+BP74+BP76</f>
         <v>32217</v>
       </c>
-      <c r="BQ94" s="2">
+      <c r="BQ95" s="2">
         <f>+BQ74+BQ76</f>
         <v>32878</v>
       </c>
     </row>
-    <row r="95" spans="2:69" ht="13" x14ac:dyDescent="0.3">
-      <c r="B95" s="2" t="s">
+    <row r="96" spans="2:69" ht="13" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R95" s="2">
-        <f t="shared" ref="R95:T95" si="252">SUM(O94:R94)</f>
+      <c r="R96" s="2">
+        <f t="shared" ref="R96:T96" si="252">SUM(O95:R95)</f>
         <v>31018</v>
       </c>
-      <c r="S95" s="2">
+      <c r="S96" s="2">
         <f t="shared" si="252"/>
         <v>26408</v>
       </c>
-      <c r="T95" s="2">
+      <c r="T96" s="2">
         <f t="shared" si="252"/>
         <v>12144</v>
       </c>
-      <c r="U95" s="2">
-        <f>SUM(R94:U94)</f>
+      <c r="U96" s="2">
+        <f>SUM(R95:U95)</f>
         <v>2550</v>
       </c>
-      <c r="V95" s="2">
-        <f>SUM(S94:V94)</f>
+      <c r="V96" s="2">
+        <f>SUM(S95:V95)</f>
         <v>-9069</v>
       </c>
-      <c r="W95" s="2">
-        <f>SUM(T94:W94)</f>
+      <c r="W96" s="2">
+        <f>SUM(T95:W95)</f>
         <v>-18627</v>
       </c>
-      <c r="X95" s="2">
-        <f>SUM(U94:X94)</f>
+      <c r="X96" s="2">
+        <f>SUM(U95:X95)</f>
         <v>-23487</v>
       </c>
-      <c r="Y95" s="2">
-        <f t="shared" ref="Y95" si="253">SUM(V94:Y94)</f>
+      <c r="Y96" s="2">
+        <f t="shared" ref="Y96" si="253">SUM(V95:Y95)</f>
         <v>-19686</v>
       </c>
-      <c r="Z95" s="2">
-        <f>SUM(W94:Z94)</f>
+      <c r="Z96" s="2">
+        <f>SUM(W95:Z95)</f>
         <v>-11569</v>
       </c>
-      <c r="AA95" s="5">
-        <f>SUM(X94:AA94)</f>
+      <c r="AA96" s="5">
+        <f>SUM(X95:AA95)</f>
         <v>-3319</v>
       </c>
-      <c r="AB95" s="5">
-        <f t="shared" ref="AB95:AE95" si="254">SUM(Y94:AB94)</f>
+      <c r="AB96" s="5">
+        <f t="shared" ref="AB96:AE96" si="254">SUM(Y95:AB95)</f>
         <v>7878</v>
       </c>
-      <c r="AC95" s="5">
+      <c r="AC96" s="5">
         <f t="shared" si="254"/>
         <v>21434</v>
       </c>
-      <c r="AD95" s="5">
+      <c r="AD96" s="5">
         <f t="shared" si="254"/>
         <v>36813</v>
       </c>
-      <c r="AE95" s="5">
+      <c r="AE96" s="5">
         <f t="shared" si="254"/>
         <v>50149</v>
       </c>
-      <c r="AF95" s="5">
-        <f t="shared" ref="AF95:AH95" si="255">SUM(AC94:AF94)</f>
+      <c r="AF96" s="5">
+        <f t="shared" ref="AF96:AH96" si="255">SUM(AC95:AF95)</f>
         <v>52973</v>
       </c>
-      <c r="AG95" s="5">
+      <c r="AG96" s="5">
         <f t="shared" si="255"/>
         <v>47747</v>
       </c>
-      <c r="AH95" s="5">
+      <c r="AH96" s="5">
         <f t="shared" si="255"/>
         <v>38219</v>
       </c>
-      <c r="AI95" s="5">
-        <f>SUM(AF94:AI94)</f>
+      <c r="AI96" s="5">
+        <f>SUM(AF95:AI95)</f>
         <v>25925</v>
       </c>
+      <c r="AJ96" s="5">
+        <f>SUM(AG95:AJ95)</f>
+        <v>18184</v>
+      </c>
     </row>
-    <row r="101" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="102" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>105</v>
       </c>
-      <c r="X101" s="7">
+      <c r="X102" s="7">
         <v>106.21</v>
       </c>
-      <c r="Y101" s="7">
+      <c r="Y102" s="7">
         <v>113</v>
       </c>
-      <c r="Z101" s="7">
+      <c r="Z102" s="7">
         <v>84</v>
       </c>
-      <c r="AA101" s="1">
+      <c r="AA102" s="1">
         <v>103.29</v>
       </c>
-      <c r="AB101" s="1">
+      <c r="AB102" s="1">
         <v>130.36000000000001</v>
       </c>
-      <c r="AC101" s="1">
+      <c r="AC102" s="1">
         <v>127.12</v>
       </c>
-      <c r="AD101" s="1">
+      <c r="AD102" s="1">
         <v>151.94</v>
       </c>
-      <c r="AE101" s="1">
+      <c r="AE102" s="1">
         <v>180.38</v>
       </c>
-      <c r="AF101" s="1">
+      <c r="AF102" s="1">
         <v>193.25</v>
       </c>
-      <c r="AG101" s="1">
+      <c r="AG102" s="1">
         <v>186.33</v>
       </c>
-      <c r="AH101" s="1">
+      <c r="AH102" s="1">
         <v>219.39</v>
       </c>
-      <c r="AI101" s="1">
+      <c r="AI102" s="1">
         <v>190.26</v>
       </c>
-      <c r="AP101">
+      <c r="AP102">
         <v>7.25</v>
       </c>
-      <c r="AQ101">
+      <c r="AQ102">
         <v>28.73</v>
       </c>
-      <c r="AR101" s="1">
+      <c r="AR102" s="1">
         <f>11495/AR34</f>
         <v>71.354583558045434</v>
       </c>
-      <c r="BO101" s="1">
-        <f>+Z101</f>
+      <c r="BO102" s="1">
+        <f>+Z102</f>
         <v>84</v>
       </c>
-      <c r="BP101" s="1">
-        <f>+AD101</f>
+      <c r="BP102" s="1">
+        <f>+AD102</f>
         <v>151.94</v>
       </c>
-      <c r="BQ101" s="1">
-        <f>+AH101</f>
+      <c r="BQ102" s="1">
+        <f>+AH102</f>
         <v>219.39</v>
       </c>
     </row>
-    <row r="102" spans="2:69" ht="13" x14ac:dyDescent="0.3">
-      <c r="BP102" s="19">
-        <f>+BP101/BO101-1</f>
+    <row r="103" spans="2:69" ht="13" x14ac:dyDescent="0.3">
+      <c r="BP103" s="19">
+        <f>+BP102/BO102-1</f>
         <v>0.80880952380952387</v>
       </c>
-      <c r="BQ102" s="19">
-        <f>+BQ101/BP101-1</f>
+      <c r="BQ103" s="19">
+        <f>+BQ102/BP102-1</f>
         <v>0.44392523364485981</v>
       </c>
     </row>

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478C862-9440-480D-90DF-564D617983C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266CCD8-F7A5-4286-94C2-F952742821DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39430" yWindow="1720" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="52390" yWindow="1580" windowWidth="21660" windowHeight="13240" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1296,7 +1296,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>10793</v>
+        <v>10806</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>2406839</v>
+        <v>2506992</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1343,10 +1343,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>94565</v>
+        <v>93180</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>53374</v>
+        <v>50718</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>2365648</v>
+        <v>2464530</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -1532,10 +1532,10 @@
   <dimension ref="A1:EG103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BS76" sqref="BS76"/>
+      <selection pane="bottomRight" activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="BZ48" s="2">
         <f>NPV(BZ45,BR32:EI32)+Main!K5-Main!K6</f>
-        <v>1210398.1413828339</v>
+        <v>1211669.1413828339</v>
       </c>
     </row>
     <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="BZ49" s="1">
         <f>+BZ48/Main!K3</f>
-        <v>112.1465895842522</v>
+        <v>112.12929311334759</v>
       </c>
     </row>
     <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266CCD8-F7A5-4286-94C2-F952742821DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26350EDB-9A9B-4946-A13F-7D2C495A165F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52390" yWindow="1580" windowWidth="21660" windowHeight="13240" activeTab="1" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
+    <workbookView xWindow="50490" yWindow="680" windowWidth="24340" windowHeight="15680" xr2:uid="{319C79D3-530A-422D-B7D4-1569BBD88715}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="159">
   <si>
     <t>Main</t>
   </si>
@@ -692,6 +692,18 @@
   </si>
   <si>
     <t>Shipping</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
@@ -872,13 +884,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>30041</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>30041</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>29307</xdr:rowOff>
@@ -1295,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E919ED4-9952-4C3B-8FDF-EC99BCC4C526}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1332,7 +1344,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>2506992</v>
+        <v>2442156</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1369,7 +1381,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4-K5+K6</f>
-        <v>2464530</v>
+        <v>2399694</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -1529,13 +1541,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D4FF-6525-4291-9B79-B00D62C08099}">
-  <dimension ref="A1:EG103"/>
+  <dimension ref="A1:EK103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AD34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AX25" sqref="AX25"/>
+      <selection pane="bottomRight" activeCell="AI34" sqref="AI34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1543,15 +1555,15 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="26" width="9.1796875" style="3"/>
-    <col min="74" max="75" width="9.54296875" customWidth="1"/>
+    <col min="78" max="79" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>116</v>
       </c>
@@ -1660,186 +1672,198 @@
       <c r="AL2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AN2">
+      <c r="AM2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR2">
         <v>1995</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <v>1996</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <v>1997</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <v>1998</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <v>1999</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <v>2000</v>
       </c>
-      <c r="AT2">
-        <f>+AS2+1</f>
+      <c r="AX2">
+        <f>+AW2+1</f>
         <v>2001</v>
       </c>
-      <c r="AU2">
-        <f t="shared" ref="AU2:CG2" si="0">+AT2+1</f>
+      <c r="AY2">
+        <f t="shared" ref="AY2:CK2" si="0">+AX2+1</f>
         <v>2002</v>
       </c>
-      <c r="AV2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="AW2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="AX2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="AY2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="AZ2">
+      <c r="BD2">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="BA2">
+      <c r="BE2">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="BB2">
+      <c r="BF2">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="BC2">
+      <c r="BG2">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="BD2">
+      <c r="BH2">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="BE2">
+      <c r="BI2">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="BF2">
+      <c r="BJ2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="BG2">
+      <c r="BK2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="BH2">
+      <c r="BL2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="BI2">
+      <c r="BM2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="BJ2">
+      <c r="BN2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="BK2">
+      <c r="BO2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="BL2">
+      <c r="BP2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="BM2">
+      <c r="BQ2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="BN2">
+      <c r="BR2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="BO2">
+      <c r="BS2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="BP2">
+      <c r="BT2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="BQ2">
+      <c r="BU2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="BR2">
+      <c r="BV2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="BS2">
+      <c r="BW2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="BT2">
+      <c r="BX2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="BU2">
+      <c r="BY2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="BV2">
+      <c r="BZ2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="BW2">
+      <c r="CA2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="BX2">
+      <c r="CB2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="BY2">
+      <c r="CC2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="BZ2">
+      <c r="CD2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="CA2">
+      <c r="CE2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="CB2">
+      <c r="CF2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="CC2">
+      <c r="CG2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="CD2">
+      <c r="CH2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="CE2">
+      <c r="CI2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="CF2">
+      <c r="CJ2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="CG2">
+      <c r="CK2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1939,47 +1963,47 @@
         <f>+AH3*1.07</f>
         <v>123677.02</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BK3" s="2">
         <v>50834</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BL3" s="2">
         <v>63708</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BM3" s="2">
         <v>79785</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BN3" s="2">
         <v>106110</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BO3" s="2">
         <v>141366</v>
       </c>
-      <c r="BL3" s="2">
+      <c r="BP3" s="2">
         <f>SUM(K3:N3)</f>
         <v>170773</v>
       </c>
-      <c r="BM3" s="2">
+      <c r="BQ3" s="2">
         <f>SUM(O3:R3)</f>
         <v>236282</v>
       </c>
-      <c r="BN3" s="2">
+      <c r="BR3" s="2">
         <f>SUM(S3:V3)</f>
         <v>279833</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="BS3" s="2">
         <f>SUM(W3:Z3)</f>
         <v>315880</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="BT3" s="2">
         <f>SUM(AA3:AD3)</f>
         <v>352828</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BU3" s="2">
         <f>SUM(AE3:AH3)</f>
         <v>387497</v>
       </c>
     </row>
-    <row r="4" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
@@ -2007,17 +2031,17 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="BG4" s="2">
+      <c r="BK4" s="2">
         <v>11567</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BL4" s="2">
         <v>12483</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BM4" s="2">
         <v>13580</v>
       </c>
     </row>
-    <row r="5" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
@@ -2045,17 +2069,17 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="BG5" s="2">
+      <c r="BK5" s="2">
         <v>38517</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BL5" s="2">
         <v>50401</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BM5" s="2">
         <v>64887</v>
       </c>
     </row>
-    <row r="6" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -2155,47 +2179,47 @@
         <f>+AH6*1.07</f>
         <v>46459.4</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BK6" s="2">
         <v>33510</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BL6" s="2">
         <v>35418</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BM6" s="2">
         <v>43983</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BN6" s="2">
         <v>103273</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="BO6" s="2">
         <v>134099</v>
       </c>
-      <c r="BL6" s="2">
+      <c r="BP6" s="2">
         <f>SUM(K6:N6)</f>
         <v>74723</v>
       </c>
-      <c r="BM6" s="2">
+      <c r="BQ6" s="2">
         <f>SUM(O6:R6)</f>
         <v>104412</v>
       </c>
-      <c r="BN6" s="2">
+      <c r="BR6" s="2">
         <f>SUM(S6:V6)</f>
         <v>127787</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="BS6" s="2">
         <f>SUM(W6:Z6)</f>
         <v>118007</v>
       </c>
-      <c r="BP6" s="2">
+      <c r="BT6" s="2">
         <f>SUM(AA6:AD6)</f>
         <v>131200</v>
       </c>
-      <c r="BQ6" s="2">
+      <c r="BU6" s="2">
         <f>SUM(AE6:AH6)</f>
         <v>142906</v>
       </c>
     </row>
-    <row r="7" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
@@ -2223,17 +2247,17 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="BG7" s="2">
+      <c r="BK7" s="2">
         <v>10938</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BL7" s="2">
         <v>10026</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BM7" s="2">
         <v>10631</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
@@ -2261,17 +2285,17 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="BG8" s="2">
+      <c r="BK8" s="2">
         <v>22369</v>
       </c>
-      <c r="BH8" s="2">
+      <c r="BL8" s="2">
         <v>25196</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BM8" s="2">
         <v>33107</v>
       </c>
     </row>
-    <row r="9" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2371,71 +2395,75 @@
         <f>+AH9*1.1</f>
         <v>31664.600000000002</v>
       </c>
-      <c r="BG9" s="2">
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="BK9" s="2">
         <v>4644</v>
       </c>
-      <c r="BH9" s="2">
+      <c r="BL9" s="2">
         <v>7880</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="BM9" s="2">
         <v>12219</v>
       </c>
-      <c r="BJ9" s="2">
+      <c r="BN9" s="2">
         <v>17459</v>
       </c>
-      <c r="BK9" s="2">
+      <c r="BO9" s="2">
         <v>25655</v>
       </c>
-      <c r="BL9" s="2">
+      <c r="BP9" s="2">
         <f>SUM(K9:N9)</f>
         <v>35026</v>
       </c>
-      <c r="BM9" s="2">
+      <c r="BQ9" s="2">
         <f>SUM(O9:R9)</f>
         <v>45370</v>
       </c>
-      <c r="BN9" s="2">
+      <c r="BR9" s="2">
         <f>SUM(S9:V9)</f>
         <v>62202</v>
       </c>
-      <c r="BO9" s="2">
+      <c r="BS9" s="2">
         <f>SUM(W9:Z9)</f>
         <v>80096</v>
       </c>
-      <c r="BP9" s="2">
+      <c r="BT9" s="2">
         <f>SUM(AA9:AD9)</f>
         <v>90757</v>
       </c>
-      <c r="BQ9" s="2">
+      <c r="BU9" s="2">
         <f>SUM(AE9:AH9)</f>
         <v>107556</v>
       </c>
-      <c r="BR9" s="2">
+      <c r="BV9" s="2">
         <f>SUM(AI9:AL9)</f>
         <v>122001.8</v>
       </c>
-      <c r="BS9" s="2">
-        <f>+BR9*1.2</f>
+      <c r="BW9" s="2">
+        <f>+BV9*1.2</f>
         <v>146402.16</v>
       </c>
-      <c r="BT9" s="2">
-        <f>+BS9*1.2</f>
+      <c r="BX9" s="2">
+        <f>+BW9*1.2</f>
         <v>175682.592</v>
       </c>
-      <c r="BU9" s="2">
-        <f>+BT9*1.15</f>
+      <c r="BY9" s="2">
+        <f>+BX9*1.15</f>
         <v>202034.98079999999</v>
       </c>
-      <c r="BV9" s="2">
-        <f>+BU9*1.1</f>
+      <c r="BZ9" s="2">
+        <f>+BY9*1.1</f>
         <v>222238.47888000001</v>
       </c>
-      <c r="BW9" s="2">
-        <f>+BV9*1.1</f>
+      <c r="CA9" s="2">
+        <f>+BZ9*1.1</f>
         <v>244462.32676800003</v>
       </c>
     </row>
-    <row r="11" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2527,60 +2555,60 @@
       <c r="AJ11" s="2">
         <v>61485</v>
       </c>
-      <c r="BK11" s="2">
+      <c r="BO11" s="2">
         <f>26939+27165+29061+39822</f>
         <v>122987</v>
       </c>
-      <c r="BL11" s="2">
-        <f t="shared" ref="BL11:BL16" si="1">SUM(K11:N11)</f>
+      <c r="BP11" s="2">
+        <f t="shared" ref="BP11:BP16" si="1">SUM(K11:N11)</f>
         <v>141247</v>
       </c>
-      <c r="BM11" s="2">
-        <f t="shared" ref="BM11:BM16" si="2">SUM(O11:R11)</f>
+      <c r="BQ11" s="2">
+        <f t="shared" ref="BQ11:BQ16" si="2">SUM(O11:R11)</f>
         <v>197349</v>
       </c>
-      <c r="BN11" s="2">
-        <f t="shared" ref="BN11:BN16" si="3">SUM(S11:V11)</f>
+      <c r="BR11" s="2">
+        <f t="shared" ref="BR11:BR16" si="3">SUM(S11:V11)</f>
         <v>222075</v>
       </c>
-      <c r="BO11" s="2">
-        <f t="shared" ref="BO11:BO16" si="4">SUM(W11:Z11)</f>
+      <c r="BS11" s="2">
+        <f t="shared" ref="BS11:BS16" si="4">SUM(W11:Z11)</f>
         <v>220004</v>
       </c>
-      <c r="BP11" s="2">
-        <f t="shared" ref="BP11:BP16" si="5">SUM(AA11:AD11)</f>
+      <c r="BT11" s="2">
+        <f t="shared" ref="BT11:BT16" si="5">SUM(AA11:AD11)</f>
         <v>231872</v>
       </c>
-      <c r="BQ11" s="2">
-        <f t="shared" ref="BQ11:BQ16" si="6">SUM(AE11:AH11)</f>
+      <c r="BU11" s="2">
+        <f t="shared" ref="BU11:BU16" si="6">SUM(AE11:AH11)</f>
         <v>247029</v>
       </c>
-      <c r="BR11" s="2">
-        <f t="shared" ref="BR11:BW11" si="7">+BQ11*1.05</f>
+      <c r="BV11" s="2">
+        <f t="shared" ref="BV11:CA11" si="7">+BU11*1.05</f>
         <v>259380.45</v>
       </c>
-      <c r="BS11" s="2">
+      <c r="BW11" s="2">
         <f t="shared" si="7"/>
         <v>272349.47250000003</v>
       </c>
-      <c r="BT11" s="2">
+      <c r="BX11" s="2">
         <f t="shared" si="7"/>
         <v>285966.94612500007</v>
       </c>
-      <c r="BU11" s="2">
+      <c r="BY11" s="2">
         <f t="shared" si="7"/>
         <v>300265.29343125009</v>
       </c>
-      <c r="BV11" s="2">
+      <c r="BZ11" s="2">
         <f t="shared" si="7"/>
         <v>315278.55810281262</v>
       </c>
-      <c r="BW11" s="2">
+      <c r="CA11" s="2">
         <f t="shared" si="7"/>
         <v>331042.48600795324</v>
       </c>
     </row>
-    <row r="12" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
@@ -2672,60 +2700,60 @@
       <c r="AJ12" s="2">
         <v>5595</v>
       </c>
-      <c r="BK12" s="2">
+      <c r="BO12" s="2">
         <f>4263+4312+4248+4401</f>
         <v>17224</v>
       </c>
-      <c r="BL12" s="2">
+      <c r="BP12" s="2">
         <f t="shared" si="1"/>
         <v>17192</v>
       </c>
-      <c r="BM12" s="2">
+      <c r="BQ12" s="2">
         <f t="shared" si="2"/>
         <v>16224</v>
       </c>
-      <c r="BN12" s="2">
+      <c r="BR12" s="2">
         <f t="shared" si="3"/>
         <v>17075</v>
       </c>
-      <c r="BO12" s="2">
+      <c r="BS12" s="2">
         <f t="shared" si="4"/>
         <v>18963</v>
       </c>
-      <c r="BP12" s="2">
+      <c r="BT12" s="2">
         <f t="shared" si="5"/>
         <v>20030</v>
       </c>
-      <c r="BQ12" s="2">
+      <c r="BU12" s="2">
         <f t="shared" si="6"/>
         <v>21215</v>
       </c>
-      <c r="BR12" s="2">
-        <f t="shared" ref="BR12:BW12" si="8">+BQ12*1.05</f>
+      <c r="BV12" s="2">
+        <f t="shared" ref="BV12:CA12" si="8">+BU12*1.05</f>
         <v>22275.75</v>
       </c>
-      <c r="BS12" s="2">
+      <c r="BW12" s="2">
         <f t="shared" si="8"/>
         <v>23389.537500000002</v>
       </c>
-      <c r="BT12" s="2">
+      <c r="BX12" s="2">
         <f t="shared" si="8"/>
         <v>24559.014375000002</v>
       </c>
-      <c r="BU12" s="2">
+      <c r="BY12" s="2">
         <f t="shared" si="8"/>
         <v>25786.965093750005</v>
       </c>
-      <c r="BV12" s="2">
+      <c r="BZ12" s="2">
         <f t="shared" si="8"/>
         <v>27076.313348437507</v>
       </c>
-      <c r="BW12" s="2">
+      <c r="CA12" s="2">
         <f t="shared" si="8"/>
         <v>28430.129015859384</v>
       </c>
     </row>
-    <row r="13" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2817,60 +2845,60 @@
       <c r="AJ13" s="2">
         <v>40348</v>
       </c>
-      <c r="BK13" s="2">
+      <c r="BO13" s="2">
         <f>9265+9702+10395+13383</f>
         <v>42745</v>
       </c>
-      <c r="BL13" s="2">
+      <c r="BP13" s="2">
         <f t="shared" si="1"/>
         <v>53761</v>
       </c>
-      <c r="BM13" s="2">
+      <c r="BQ13" s="2">
         <f t="shared" si="2"/>
         <v>80437</v>
       </c>
-      <c r="BN13" s="2">
+      <c r="BR13" s="2">
         <f t="shared" si="3"/>
         <v>103366</v>
       </c>
-      <c r="BO13" s="2">
+      <c r="BS13" s="2">
         <f t="shared" si="4"/>
         <v>117716</v>
       </c>
-      <c r="BP13" s="2">
+      <c r="BT13" s="2">
         <f t="shared" si="5"/>
         <v>140053</v>
       </c>
-      <c r="BQ13" s="2">
+      <c r="BU13" s="2">
         <f t="shared" si="6"/>
         <v>156146</v>
       </c>
-      <c r="BR13" s="2">
-        <f t="shared" ref="BR13:BW13" si="9">+BQ13*1.05</f>
+      <c r="BV13" s="2">
+        <f t="shared" ref="BV13:CA13" si="9">+BU13*1.05</f>
         <v>163953.30000000002</v>
       </c>
-      <c r="BS13" s="2">
+      <c r="BW13" s="2">
         <f t="shared" si="9"/>
         <v>172150.96500000003</v>
       </c>
-      <c r="BT13" s="2">
+      <c r="BX13" s="2">
         <f t="shared" si="9"/>
         <v>180758.51325000005</v>
       </c>
-      <c r="BU13" s="2">
+      <c r="BY13" s="2">
         <f t="shared" si="9"/>
         <v>189796.43891250005</v>
       </c>
-      <c r="BV13" s="2">
+      <c r="BZ13" s="2">
         <f t="shared" si="9"/>
         <v>199286.26085812505</v>
       </c>
-      <c r="BW13" s="2">
+      <c r="CA13" s="2">
         <f t="shared" si="9"/>
         <v>209250.57390103131</v>
       </c>
     </row>
-    <row r="14" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2962,60 +2990,60 @@
       <c r="AJ14" s="2">
         <v>15694</v>
       </c>
-      <c r="BK14" s="2">
+      <c r="BO14" s="2">
         <f>3102+3408+3698+3959</f>
         <v>14167</v>
       </c>
-      <c r="BL14" s="2">
+      <c r="BP14" s="2">
         <f t="shared" si="1"/>
         <v>19210</v>
       </c>
-      <c r="BM14" s="2">
+      <c r="BQ14" s="2">
         <f t="shared" si="2"/>
         <v>25207</v>
       </c>
-      <c r="BN14" s="2">
+      <c r="BR14" s="2">
         <f t="shared" si="3"/>
         <v>31768</v>
       </c>
-      <c r="BO14" s="2">
+      <c r="BS14" s="2">
         <f t="shared" si="4"/>
         <v>35218</v>
       </c>
-      <c r="BP14" s="2">
+      <c r="BT14" s="2">
         <f t="shared" si="5"/>
         <v>40209</v>
       </c>
-      <c r="BQ14" s="2">
+      <c r="BU14" s="2">
         <f t="shared" si="6"/>
         <v>56214</v>
       </c>
-      <c r="BR14" s="2">
-        <f t="shared" ref="BR14:BT14" si="10">+BQ14*1.1</f>
+      <c r="BV14" s="2">
+        <f t="shared" ref="BV14:BX14" si="10">+BU14*1.1</f>
         <v>61835.4</v>
       </c>
-      <c r="BS14" s="2">
+      <c r="BW14" s="2">
         <f t="shared" si="10"/>
         <v>68018.94</v>
       </c>
-      <c r="BT14" s="2">
+      <c r="BX14" s="2">
         <f t="shared" si="10"/>
         <v>74820.834000000003</v>
       </c>
-      <c r="BU14" s="2">
-        <f t="shared" ref="BU14:BW14" si="11">+BT14*1.05</f>
+      <c r="BY14" s="2">
+        <f t="shared" ref="BY14:CA14" si="11">+BX14*1.05</f>
         <v>78561.875700000004</v>
       </c>
-      <c r="BV14" s="2">
+      <c r="BZ14" s="2">
         <f t="shared" si="11"/>
         <v>82489.969485000009</v>
       </c>
-      <c r="BW14" s="2">
+      <c r="CA14" s="2">
         <f t="shared" si="11"/>
         <v>86614.467959250018</v>
       </c>
     </row>
-    <row r="15" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -3107,60 +3135,60 @@
       <c r="AJ15" s="2">
         <v>12208</v>
       </c>
-      <c r="BK15" s="2">
+      <c r="BO15" s="2">
         <f>2031+2194+2495+3388</f>
         <v>10108</v>
       </c>
-      <c r="BL15" s="2">
+      <c r="BP15" s="2">
         <f t="shared" si="1"/>
         <v>14086</v>
       </c>
-      <c r="BM15" s="2">
+      <c r="BQ15" s="2">
         <f t="shared" si="2"/>
         <v>20875</v>
       </c>
-      <c r="BN15" s="2">
+      <c r="BR15" s="2">
         <f t="shared" si="3"/>
         <v>31160</v>
       </c>
-      <c r="BO15" s="2">
+      <c r="BS15" s="2">
         <f t="shared" si="4"/>
         <v>37739</v>
       </c>
-      <c r="BP15" s="2">
+      <c r="BT15" s="2">
         <f t="shared" si="5"/>
         <v>46906</v>
       </c>
-      <c r="BQ15" s="2">
+      <c r="BU15" s="2">
         <f t="shared" si="6"/>
         <v>44374</v>
       </c>
-      <c r="BR15" s="2">
-        <f t="shared" ref="BR15:BT15" si="12">+BQ15*1.1</f>
+      <c r="BV15" s="2">
+        <f t="shared" ref="BV15:BX15" si="12">+BU15*1.1</f>
         <v>48811.4</v>
       </c>
-      <c r="BS15" s="2">
+      <c r="BW15" s="2">
         <f t="shared" si="12"/>
         <v>53692.540000000008</v>
       </c>
-      <c r="BT15" s="2">
+      <c r="BX15" s="2">
         <f t="shared" si="12"/>
         <v>59061.794000000016</v>
       </c>
-      <c r="BU15" s="2">
-        <f t="shared" ref="BU15:BW15" si="13">+BT15*1.05</f>
+      <c r="BY15" s="2">
+        <f t="shared" ref="BY15:CA15" si="13">+BX15*1.05</f>
         <v>62014.88370000002</v>
       </c>
-      <c r="BV15" s="2">
+      <c r="BZ15" s="2">
         <f t="shared" si="13"/>
         <v>65115.627885000024</v>
       </c>
-      <c r="BW15" s="2">
+      <c r="CA15" s="2">
         <f t="shared" si="13"/>
         <v>68371.409279250031</v>
       </c>
     </row>
-    <row r="16" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -3250,60 +3278,60 @@
       <c r="AJ16" s="2">
         <v>1499</v>
       </c>
-      <c r="BL16" s="2">
+      <c r="BP16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM16" s="2">
+      <c r="BQ16" s="2">
         <f t="shared" si="2"/>
         <v>602</v>
       </c>
-      <c r="BN16" s="2">
+      <c r="BR16" s="2">
         <f t="shared" si="3"/>
         <v>2176</v>
       </c>
-      <c r="BO16" s="2">
+      <c r="BS16" s="2">
         <f t="shared" si="4"/>
         <v>4247</v>
       </c>
-      <c r="BP16" s="2">
+      <c r="BT16" s="2">
         <f t="shared" si="5"/>
         <v>4958</v>
       </c>
-      <c r="BQ16" s="2">
+      <c r="BU16" s="2">
         <f t="shared" si="6"/>
         <v>5425</v>
       </c>
-      <c r="BR16" s="2">
-        <f t="shared" ref="BR16:BW16" si="14">+BQ16*1.05</f>
+      <c r="BV16" s="2">
+        <f t="shared" ref="BV16:CA16" si="14">+BU16*1.05</f>
         <v>5696.25</v>
       </c>
-      <c r="BS16" s="2">
+      <c r="BW16" s="2">
         <f t="shared" si="14"/>
         <v>5981.0625</v>
       </c>
-      <c r="BT16" s="2">
+      <c r="BX16" s="2">
         <f t="shared" si="14"/>
         <v>6280.1156250000004</v>
       </c>
-      <c r="BU16" s="2">
+      <c r="BY16" s="2">
         <f t="shared" si="14"/>
         <v>6594.1214062500003</v>
       </c>
-      <c r="BV16" s="2">
+      <c r="BZ16" s="2">
         <f t="shared" si="14"/>
         <v>6923.827476562501</v>
       </c>
-      <c r="BW16" s="2">
+      <c r="CA16" s="2">
         <f t="shared" si="14"/>
         <v>7270.0188503906265</v>
       </c>
     </row>
-    <row r="17" spans="2:137" x14ac:dyDescent="0.25">
-      <c r="BO17" s="2"/>
-      <c r="BP17" s="2"/>
+    <row r="17" spans="2:141" x14ac:dyDescent="0.25">
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
     </row>
-    <row r="18" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3395,38 +3423,38 @@
       <c r="AJ18" s="2">
         <v>68246</v>
       </c>
-      <c r="BJ18" s="2">
+      <c r="BN18" s="2">
         <v>118573</v>
       </c>
-      <c r="BK18" s="2">
+      <c r="BO18" s="2">
         <v>141915</v>
       </c>
-      <c r="BL18" s="2">
+      <c r="BP18" s="2">
         <f>SUM(K18:N18)</f>
         <v>160407</v>
       </c>
-      <c r="BM18" s="2">
+      <c r="BQ18" s="2">
         <f>SUM(O18:R18)</f>
         <v>215915</v>
       </c>
-      <c r="BN18" s="2">
+      <c r="BR18" s="2">
         <f>SUM(S18:V18)</f>
         <v>241787</v>
       </c>
-      <c r="BO18" s="2">
-        <f t="shared" ref="BO18:BO19" si="15">SUM(W18:Z18)</f>
+      <c r="BS18" s="2">
+        <f t="shared" ref="BS18:BS19" si="15">SUM(W18:Z18)</f>
         <v>242901</v>
       </c>
-      <c r="BP18" s="2">
-        <f t="shared" ref="BP18:BP19" si="16">SUM(AA18:AD18)</f>
+      <c r="BT18" s="2">
+        <f t="shared" ref="BT18:BT19" si="16">SUM(AA18:AD18)</f>
         <v>255887</v>
       </c>
-      <c r="BQ18" s="2">
-        <f t="shared" ref="BQ18:BQ19" si="17">SUM(AE18:AH18)</f>
+      <c r="BU18" s="2">
+        <f t="shared" ref="BU18:BU19" si="17">SUM(AE18:AH18)</f>
         <v>272311</v>
       </c>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3518,38 +3546,38 @@
       <c r="AJ19" s="2">
         <v>99456</v>
       </c>
-      <c r="BJ19" s="2">
+      <c r="BN19" s="2">
         <v>59293</v>
       </c>
-      <c r="BK19" s="2">
+      <c r="BO19" s="2">
         <v>90972</v>
       </c>
-      <c r="BL19" s="2">
+      <c r="BP19" s="2">
         <f>SUM(K19:N19)</f>
         <v>120115</v>
       </c>
-      <c r="BM19" s="2">
+      <c r="BQ19" s="2">
         <f>SUM(O19:R19)</f>
         <v>170149</v>
       </c>
-      <c r="BN19" s="2">
+      <c r="BR19" s="2">
         <f>SUM(S19:V19)</f>
         <v>228035</v>
       </c>
-      <c r="BO19" s="2">
+      <c r="BS19" s="2">
         <f t="shared" si="15"/>
         <v>271082</v>
       </c>
-      <c r="BP19" s="2">
+      <c r="BT19" s="2">
         <f t="shared" si="16"/>
         <v>318898</v>
       </c>
-      <c r="BQ19" s="2">
+      <c r="BU19" s="2">
         <f t="shared" si="17"/>
         <v>365649</v>
       </c>
     </row>
-    <row r="20" spans="2:137" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:141" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3676,133 +3704,137 @@
         <f>+AH20*1.1</f>
         <v>206571.2</v>
       </c>
-      <c r="AN20" s="5">
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AR20" s="5">
         <v>0.51100000000000001</v>
       </c>
-      <c r="AO20" s="5">
+      <c r="AS20" s="5">
         <v>15.746</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AT20" s="5">
         <v>147.78700000000001</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="AU20" s="5">
         <v>609.81899999999996</v>
       </c>
-      <c r="AR20" s="5">
+      <c r="AV20" s="5">
         <v>1639.8389999999999</v>
       </c>
-      <c r="AS20" s="5">
+      <c r="AW20" s="5">
         <v>2761.9830000000002</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="AX20" s="5">
         <v>3122.433</v>
       </c>
-      <c r="AU20" s="5">
+      <c r="AY20" s="5">
         <v>3932.9360000000001</v>
       </c>
-      <c r="AV20" s="5">
+      <c r="AZ20" s="5">
         <v>5263.6989999999996</v>
       </c>
-      <c r="AW20" s="5">
+      <c r="BA20" s="5">
         <v>6921</v>
       </c>
-      <c r="AX20" s="5">
+      <c r="BB20" s="5">
         <v>8490</v>
       </c>
-      <c r="AY20" s="5">
+      <c r="BC20" s="5">
         <v>10711</v>
       </c>
-      <c r="AZ20" s="5">
+      <c r="BD20" s="5">
         <v>14835</v>
       </c>
-      <c r="BA20" s="5">
+      <c r="BE20" s="5">
         <v>19166</v>
       </c>
-      <c r="BB20" s="5">
+      <c r="BF20" s="5">
         <v>24509</v>
       </c>
-      <c r="BC20" s="5">
+      <c r="BG20" s="5">
         <v>34204</v>
       </c>
-      <c r="BD20" s="5">
+      <c r="BH20" s="5">
         <v>48077</v>
       </c>
-      <c r="BE20" s="5">
+      <c r="BI20" s="5">
         <v>61093</v>
       </c>
-      <c r="BF20" s="5">
+      <c r="BJ20" s="5">
         <v>74452</v>
       </c>
-      <c r="BG20" s="5">
-        <f>+BG3+BG6+BG9</f>
+      <c r="BK20" s="5">
+        <f>+BK3+BK6+BK9</f>
         <v>88988</v>
       </c>
-      <c r="BH20" s="5">
-        <f t="shared" ref="BH20:BI20" si="25">+BH3+BH6+BH9</f>
+      <c r="BL20" s="5">
+        <f t="shared" ref="BL20:BM20" si="25">+BL3+BL6+BL9</f>
         <v>107006</v>
       </c>
-      <c r="BI20" s="5">
+      <c r="BM20" s="5">
         <f t="shared" si="25"/>
         <v>135987</v>
       </c>
-      <c r="BJ20" s="6">
-        <f t="shared" ref="BJ20" si="26">BJ18+BJ19</f>
+      <c r="BN20" s="6">
+        <f t="shared" ref="BN20" si="26">BN18+BN19</f>
         <v>177866</v>
       </c>
-      <c r="BK20" s="6">
-        <f t="shared" ref="BK20" si="27">BK18+BK19</f>
+      <c r="BO20" s="6">
+        <f t="shared" ref="BO20" si="27">BO18+BO19</f>
         <v>232887</v>
       </c>
-      <c r="BL20" s="6">
-        <f>BL18+BL19</f>
+      <c r="BP20" s="6">
+        <f>BP18+BP19</f>
         <v>280522</v>
       </c>
-      <c r="BM20" s="6">
-        <f>BM18+BM19</f>
+      <c r="BQ20" s="6">
+        <f>BQ18+BQ19</f>
         <v>386064</v>
       </c>
-      <c r="BN20" s="6">
-        <f>BN18+BN19</f>
+      <c r="BR20" s="6">
+        <f>BR18+BR19</f>
         <v>469822</v>
       </c>
-      <c r="BO20" s="5">
-        <f>SUM(BO9:BO16)</f>
+      <c r="BS20" s="5">
+        <f>SUM(BS9:BS16)</f>
         <v>513983</v>
       </c>
-      <c r="BP20" s="5">
-        <f>SUM(BP9:BP16)</f>
+      <c r="BT20" s="5">
+        <f>SUM(BT9:BT16)</f>
         <v>574785</v>
       </c>
-      <c r="BQ20" s="5">
-        <f>SUM(BQ9:BQ16)</f>
+      <c r="BU20" s="5">
+        <f>SUM(BU9:BU16)</f>
         <v>637959</v>
       </c>
-      <c r="BR20" s="5">
-        <f t="shared" ref="BR20:BW20" si="28">SUM(BR9:BR16)</f>
+      <c r="BV20" s="5">
+        <f t="shared" ref="BV20:CA20" si="28">SUM(BV9:BV16)</f>
         <v>683954.35000000009</v>
       </c>
-      <c r="BS20" s="5">
+      <c r="BW20" s="5">
         <f t="shared" si="28"/>
         <v>741984.67749999999</v>
       </c>
-      <c r="BT20" s="5">
+      <c r="BX20" s="5">
         <f t="shared" si="28"/>
         <v>807129.80937500019</v>
       </c>
-      <c r="BU20" s="5">
+      <c r="BY20" s="5">
         <f t="shared" si="28"/>
         <v>865054.55904375017</v>
       </c>
-      <c r="BV20" s="5">
+      <c r="BZ20" s="5">
         <f t="shared" si="28"/>
         <v>918409.03603593772</v>
       </c>
-      <c r="BW20" s="5">
+      <c r="CA20" s="5">
         <f t="shared" si="28"/>
         <v>975441.41178173455</v>
       </c>
     </row>
-    <row r="21" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3894,80 +3926,80 @@
       <c r="AJ21" s="2">
         <v>80809</v>
       </c>
-      <c r="AT21" s="2">
+      <c r="AX21" s="2">
         <v>2323.875</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="AY21" s="2">
         <v>2940.3180000000002</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AZ21" s="2">
         <v>4006.5309999999999</v>
       </c>
-      <c r="BG21" s="2">
+      <c r="BK21" s="2">
         <v>62752</v>
       </c>
-      <c r="BH21" s="2">
+      <c r="BL21" s="2">
         <v>71651</v>
       </c>
-      <c r="BI21" s="2">
+      <c r="BM21" s="2">
         <v>88265</v>
       </c>
-      <c r="BJ21" s="2">
+      <c r="BN21" s="2">
         <v>111934</v>
       </c>
-      <c r="BK21" s="2">
+      <c r="BO21" s="2">
         <v>139156</v>
       </c>
-      <c r="BL21" s="2">
+      <c r="BP21" s="2">
         <f>SUM(K21:N21)</f>
         <v>165536</v>
       </c>
-      <c r="BM21" s="2">
+      <c r="BQ21" s="2">
         <f>SUM(O21:R21)</f>
         <v>233307</v>
       </c>
-      <c r="BN21" s="2">
+      <c r="BR21" s="2">
         <f>SUM(S21:V21)</f>
         <v>272344</v>
       </c>
-      <c r="BO21" s="2">
+      <c r="BS21" s="2">
         <f>SUM(W21:Z21)</f>
         <v>288831</v>
       </c>
-      <c r="BP21" s="2">
+      <c r="BT21" s="2">
         <f>SUM(AA21:AD21)</f>
         <v>304739</v>
       </c>
-      <c r="BQ21" s="4">
-        <f t="shared" ref="BQ21:BW21" si="29">SUM(BQ11:BQ13)*0.8+BQ9*0.7</f>
+      <c r="BU21" s="4">
+        <f t="shared" ref="BU21:CA21" si="29">SUM(BU11:BU13)*0.8+BU9*0.7</f>
         <v>414801.2</v>
       </c>
-      <c r="BR21" s="4">
+      <c r="BV21" s="4">
         <f t="shared" si="29"/>
         <v>441888.86000000004</v>
       </c>
-      <c r="BS21" s="4">
+      <c r="BW21" s="4">
         <f t="shared" si="29"/>
         <v>476793.49200000003</v>
       </c>
-      <c r="BT21" s="4">
+      <c r="BX21" s="4">
         <f t="shared" si="29"/>
         <v>516005.39340000012</v>
       </c>
-      <c r="BU21" s="4">
+      <c r="BY21" s="4">
         <f t="shared" si="29"/>
         <v>554103.44451000006</v>
       </c>
-      <c r="BV21" s="4">
+      <c r="BZ21" s="4">
         <f t="shared" si="29"/>
         <v>588879.84106350003</v>
       </c>
-      <c r="BW21" s="4">
+      <c r="CA21" s="4">
         <f t="shared" si="29"/>
         <v>626102.17987747514</v>
       </c>
     </row>
-    <row r="22" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
@@ -4059,80 +4091,80 @@
       <c r="AJ22" s="2">
         <v>25976</v>
       </c>
-      <c r="AT22" s="2">
+      <c r="AX22" s="2">
         <v>798.55799999999999</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AY22" s="2">
         <v>392.46699999999998</v>
       </c>
-      <c r="AV22" s="2">
+      <c r="AZ22" s="2">
         <v>477.03199999999998</v>
       </c>
-      <c r="BG22" s="2">
+      <c r="BK22" s="2">
         <v>10766</v>
       </c>
-      <c r="BH22" s="2">
+      <c r="BL22" s="2">
         <v>13410</v>
       </c>
-      <c r="BI22" s="2">
+      <c r="BM22" s="2">
         <v>17619</v>
       </c>
-      <c r="BJ22" s="2">
+      <c r="BN22" s="2">
         <v>25249</v>
       </c>
-      <c r="BK22" s="2">
+      <c r="BO22" s="2">
         <v>34027</v>
       </c>
-      <c r="BL22" s="2">
+      <c r="BP22" s="2">
         <f>SUM(K22:N22)</f>
         <v>40231</v>
       </c>
-      <c r="BM22" s="2">
+      <c r="BQ22" s="2">
         <f>SUM(O22:R22)</f>
         <v>58516</v>
       </c>
-      <c r="BN22" s="2">
+      <c r="BR22" s="2">
         <f>SUM(S22:V22)</f>
         <v>75111</v>
       </c>
-      <c r="BO22" s="2">
+      <c r="BS22" s="2">
         <f>SUM(W22:Z22)</f>
         <v>84299</v>
       </c>
-      <c r="BP22" s="2">
+      <c r="BT22" s="2">
         <f>SUM(AA22:AD22)</f>
         <v>90619</v>
       </c>
-      <c r="BQ22" s="4">
-        <f t="shared" ref="BQ22:BW22" si="30">(BQ13+BQ11)*0.1</f>
+      <c r="BU22" s="4">
+        <f t="shared" ref="BU22:CA22" si="30">(BU13+BU11)*0.1</f>
         <v>40317.5</v>
       </c>
-      <c r="BR22" s="4">
+      <c r="BV22" s="4">
         <f t="shared" si="30"/>
         <v>42333.375</v>
       </c>
-      <c r="BS22" s="4">
+      <c r="BW22" s="4">
         <f t="shared" si="30"/>
         <v>44450.043750000012</v>
       </c>
-      <c r="BT22" s="4">
+      <c r="BX22" s="4">
         <f t="shared" si="30"/>
         <v>46672.545937500014</v>
       </c>
-      <c r="BU22" s="4">
+      <c r="BY22" s="4">
         <f t="shared" si="30"/>
         <v>49006.173234375019</v>
       </c>
-      <c r="BV22" s="4">
+      <c r="BZ22" s="4">
         <f t="shared" si="30"/>
         <v>51456.48189609377</v>
       </c>
-      <c r="BW22" s="4">
+      <c r="CA22" s="4">
         <f t="shared" si="30"/>
         <v>54029.305990898458</v>
       </c>
     </row>
-    <row r="23" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -4259,88 +4291,88 @@
         <f t="shared" si="38"/>
         <v>70234.208000000013</v>
       </c>
-      <c r="AT23" s="2">
-        <f>AT20-AT21-AT22</f>
+      <c r="AX23" s="2">
+        <f>AX20-AX21-AX22</f>
         <v>0</v>
       </c>
-      <c r="AU23" s="2">
-        <f>AU20-AU21-AU22</f>
+      <c r="AY23" s="2">
+        <f>AY20-AY21-AY22</f>
         <v>600.15099999999995</v>
       </c>
-      <c r="AV23" s="2">
-        <f>AV20-AV21-AV22</f>
+      <c r="AZ23" s="2">
+        <f>AZ20-AZ21-AZ22</f>
         <v>780.13599999999974</v>
       </c>
-      <c r="BG23" s="4">
-        <f t="shared" ref="BG23:BJ23" si="39">BG20-BG21-BG22</f>
+      <c r="BK23" s="4">
+        <f t="shared" ref="BK23:BN23" si="39">BK20-BK21-BK22</f>
         <v>15470</v>
       </c>
-      <c r="BH23" s="4">
+      <c r="BL23" s="4">
         <f t="shared" si="39"/>
         <v>21945</v>
       </c>
-      <c r="BI23" s="4">
+      <c r="BM23" s="4">
         <f t="shared" si="39"/>
         <v>30103</v>
       </c>
-      <c r="BJ23" s="4">
+      <c r="BN23" s="4">
         <f t="shared" si="39"/>
         <v>40683</v>
       </c>
-      <c r="BK23" s="4">
-        <f t="shared" ref="BK23:BL23" si="40">BK20-BK21-BK22</f>
+      <c r="BO23" s="4">
+        <f t="shared" ref="BO23:BP23" si="40">BO20-BO21-BO22</f>
         <v>59704</v>
       </c>
-      <c r="BL23" s="4">
+      <c r="BP23" s="4">
         <f t="shared" si="40"/>
         <v>74755</v>
       </c>
-      <c r="BM23" s="4">
-        <f t="shared" ref="BM23:BW23" si="41">BM20-BM21-BM22</f>
+      <c r="BQ23" s="4">
+        <f t="shared" ref="BQ23:CA23" si="41">BQ20-BQ21-BQ22</f>
         <v>94241</v>
       </c>
-      <c r="BN23" s="4">
+      <c r="BR23" s="4">
         <f t="shared" si="41"/>
         <v>122367</v>
       </c>
-      <c r="BO23" s="4">
+      <c r="BS23" s="4">
         <f t="shared" si="41"/>
         <v>140853</v>
       </c>
-      <c r="BP23" s="4">
+      <c r="BT23" s="4">
         <f t="shared" si="41"/>
         <v>179427</v>
       </c>
-      <c r="BQ23" s="4">
+      <c r="BU23" s="4">
         <f t="shared" si="41"/>
         <v>182840.3</v>
       </c>
-      <c r="BR23" s="4">
+      <c r="BV23" s="4">
         <f t="shared" si="41"/>
         <v>199732.11500000005</v>
       </c>
-      <c r="BS23" s="4">
+      <c r="BW23" s="4">
         <f t="shared" si="41"/>
         <v>220741.14174999995</v>
       </c>
-      <c r="BT23" s="4">
+      <c r="BX23" s="4">
         <f t="shared" si="41"/>
         <v>244451.87003750005</v>
       </c>
-      <c r="BU23" s="4">
+      <c r="BY23" s="4">
         <f t="shared" si="41"/>
         <v>261944.94129937509</v>
       </c>
-      <c r="BV23" s="4">
+      <c r="BZ23" s="4">
         <f t="shared" si="41"/>
         <v>278072.71307634393</v>
       </c>
-      <c r="BW23" s="4">
+      <c r="CA23" s="4">
         <f t="shared" si="41"/>
         <v>295309.92591336096</v>
       </c>
     </row>
-    <row r="24" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -4433,80 +4465,80 @@
       <c r="AJ24" s="2">
         <v>27166</v>
       </c>
-      <c r="AT24" s="2">
+      <c r="AX24" s="2">
         <v>241.16499999999999</v>
       </c>
-      <c r="AU24" s="2">
+      <c r="AY24" s="2">
         <v>215.61699999999999</v>
       </c>
-      <c r="AV24" s="2">
+      <c r="AZ24" s="2">
         <v>207.809</v>
       </c>
-      <c r="BG24" s="2">
+      <c r="BK24" s="2">
         <v>9275</v>
       </c>
-      <c r="BH24" s="2">
+      <c r="BL24" s="2">
         <v>12540</v>
       </c>
-      <c r="BI24" s="2">
+      <c r="BM24" s="2">
         <v>16085</v>
       </c>
-      <c r="BJ24" s="2">
+      <c r="BN24" s="2">
         <v>22620</v>
       </c>
-      <c r="BK24" s="2">
+      <c r="BO24" s="2">
         <v>28837</v>
       </c>
-      <c r="BL24" s="2">
+      <c r="BP24" s="2">
         <f>SUM(K24:N24)</f>
         <v>35932</v>
       </c>
-      <c r="BM24" s="2">
+      <c r="BQ24" s="2">
         <f>SUM(O24:R24)</f>
         <v>42738</v>
       </c>
-      <c r="BN24" s="2">
+      <c r="BR24" s="2">
         <f>SUM(S24:V24)</f>
         <v>56052</v>
       </c>
-      <c r="BO24" s="2">
+      <c r="BS24" s="2">
         <f>SUM(W24:Z24)</f>
         <v>73213</v>
       </c>
-      <c r="BP24" s="2">
+      <c r="BT24" s="2">
         <f>SUM(AA24:AD24)</f>
         <v>85622</v>
       </c>
-      <c r="BQ24" s="2">
-        <f>+BP24*1.03</f>
+      <c r="BU24" s="2">
+        <f>+BT24*1.03</f>
         <v>88190.66</v>
       </c>
-      <c r="BR24" s="2">
-        <f t="shared" ref="BR24:BW24" si="42">+BQ24*1.03</f>
+      <c r="BV24" s="2">
+        <f t="shared" ref="BV24:CA24" si="42">+BU24*1.03</f>
         <v>90836.37980000001</v>
       </c>
-      <c r="BS24" s="2">
+      <c r="BW24" s="2">
         <f t="shared" si="42"/>
         <v>93561.471194000012</v>
       </c>
-      <c r="BT24" s="2">
+      <c r="BX24" s="2">
         <f t="shared" si="42"/>
         <v>96368.31532982002</v>
       </c>
-      <c r="BU24" s="2">
+      <c r="BY24" s="2">
         <f t="shared" si="42"/>
         <v>99259.364789714629</v>
       </c>
-      <c r="BV24" s="2">
+      <c r="BZ24" s="2">
         <f t="shared" si="42"/>
         <v>102237.14573340607</v>
       </c>
-      <c r="BW24" s="2">
+      <c r="CA24" s="2">
         <f t="shared" si="42"/>
         <v>105304.26010540825</v>
       </c>
     </row>
-    <row r="25" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -4599,80 +4631,80 @@
       <c r="AJ25" s="2">
         <v>11416</v>
       </c>
-      <c r="AT25" s="2">
+      <c r="AX25" s="2">
         <v>138.28299999999999</v>
       </c>
-      <c r="AU25" s="2">
+      <c r="AY25" s="2">
         <v>125.383</v>
       </c>
-      <c r="AV25" s="2">
+      <c r="AZ25" s="2">
         <v>122.78700000000001</v>
       </c>
-      <c r="BG25" s="2">
+      <c r="BK25" s="2">
         <v>4332</v>
       </c>
-      <c r="BH25" s="2">
+      <c r="BL25" s="2">
         <v>5254</v>
       </c>
-      <c r="BI25" s="2">
+      <c r="BM25" s="2">
         <v>7233</v>
       </c>
-      <c r="BJ25" s="2">
+      <c r="BN25" s="2">
         <v>10069</v>
       </c>
-      <c r="BK25" s="2">
+      <c r="BO25" s="2">
         <v>13814</v>
       </c>
-      <c r="BL25" s="2">
+      <c r="BP25" s="2">
         <f>SUM(K25:N25)</f>
         <v>18879</v>
       </c>
-      <c r="BM25" s="2">
+      <c r="BQ25" s="2">
         <f>SUM(O25:R25)</f>
         <v>22010</v>
       </c>
-      <c r="BN25" s="2">
+      <c r="BR25" s="2">
         <f>SUM(S25:V25)</f>
         <v>32551</v>
       </c>
-      <c r="BO25" s="2">
+      <c r="BS25" s="2">
         <f>SUM(W25:Z25)</f>
         <v>42238</v>
       </c>
-      <c r="BP25" s="2">
+      <c r="BT25" s="2">
         <f>SUM(AA25:AD25)</f>
         <v>44370</v>
       </c>
-      <c r="BQ25" s="2">
-        <f t="shared" ref="BQ25:BW25" si="43">+BP25*1.03</f>
+      <c r="BU25" s="2">
+        <f t="shared" ref="BU25:CA25" si="43">+BT25*1.03</f>
         <v>45701.1</v>
       </c>
-      <c r="BR25" s="2">
+      <c r="BV25" s="2">
         <f t="shared" si="43"/>
         <v>47072.133000000002</v>
       </c>
-      <c r="BS25" s="2">
+      <c r="BW25" s="2">
         <f t="shared" si="43"/>
         <v>48484.296990000003</v>
       </c>
-      <c r="BT25" s="2">
+      <c r="BX25" s="2">
         <f t="shared" si="43"/>
         <v>49938.825899700001</v>
       </c>
-      <c r="BU25" s="2">
+      <c r="BY25" s="2">
         <f t="shared" si="43"/>
         <v>51436.990676690999</v>
       </c>
-      <c r="BV25" s="2">
+      <c r="BZ25" s="2">
         <f t="shared" si="43"/>
         <v>52980.100396991729</v>
       </c>
-      <c r="BW25" s="2">
+      <c r="CA25" s="2">
         <f t="shared" si="43"/>
         <v>54569.503408901481</v>
       </c>
     </row>
-    <row r="26" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:141" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4766,80 +4798,80 @@
       <c r="AJ26" s="2">
         <v>2965</v>
       </c>
-      <c r="AT26" s="2">
+      <c r="AX26" s="2">
         <v>89.861999999999995</v>
       </c>
-      <c r="AU26" s="2">
+      <c r="AY26" s="2">
         <v>79.049000000000007</v>
       </c>
-      <c r="AV26" s="2">
+      <c r="AZ26" s="2">
         <v>88.302000000000007</v>
       </c>
-      <c r="BG26" s="2">
+      <c r="BK26" s="2">
         <v>1552</v>
       </c>
-      <c r="BH26" s="2">
+      <c r="BL26" s="2">
         <v>1747</v>
       </c>
-      <c r="BI26" s="2">
+      <c r="BM26" s="2">
         <v>2432</v>
       </c>
-      <c r="BJ26" s="2">
+      <c r="BN26" s="2">
         <v>3674</v>
       </c>
-      <c r="BK26" s="2">
+      <c r="BO26" s="2">
         <v>4336</v>
       </c>
-      <c r="BL26" s="2">
+      <c r="BP26" s="2">
         <f>SUM(K26:N26)</f>
         <v>5203</v>
       </c>
-      <c r="BM26" s="2">
+      <c r="BQ26" s="2">
         <f>SUM(O26:R26)</f>
         <v>6668</v>
       </c>
-      <c r="BN26" s="2">
+      <c r="BR26" s="2">
         <f>SUM(S26:V26)</f>
         <v>8823</v>
       </c>
-      <c r="BO26" s="2">
+      <c r="BS26" s="2">
         <f>SUM(W26:Z26)</f>
         <v>11891</v>
       </c>
-      <c r="BP26" s="2">
+      <c r="BT26" s="2">
         <f>SUM(AA26:AD26)</f>
         <v>11816</v>
       </c>
-      <c r="BQ26" s="2">
-        <f t="shared" ref="BQ26:BW26" si="44">+BP26*1.03</f>
+      <c r="BU26" s="2">
+        <f t="shared" ref="BU26:CA26" si="44">+BT26*1.03</f>
         <v>12170.48</v>
       </c>
-      <c r="BR26" s="2">
+      <c r="BV26" s="2">
         <f t="shared" si="44"/>
         <v>12535.5944</v>
       </c>
-      <c r="BS26" s="2">
+      <c r="BW26" s="2">
         <f t="shared" si="44"/>
         <v>12911.662232000001</v>
       </c>
-      <c r="BT26" s="2">
+      <c r="BX26" s="2">
         <f t="shared" si="44"/>
         <v>13299.012098960002</v>
       </c>
-      <c r="BU26" s="2">
+      <c r="BY26" s="2">
         <f t="shared" si="44"/>
         <v>13697.982461928803</v>
       </c>
-      <c r="BV26" s="2">
+      <c r="BZ26" s="2">
         <f t="shared" si="44"/>
         <v>14108.921935786668</v>
       </c>
-      <c r="BW26" s="2">
+      <c r="CA26" s="2">
         <f t="shared" si="44"/>
         <v>14532.189593860268</v>
       </c>
     </row>
-    <row r="27" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:141" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4966,88 +4998,92 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="AT27" s="2">
-        <f>AT26+AT25+AT24</f>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AX27" s="2">
+        <f>AX26+AX25+AX24</f>
         <v>469.30999999999995</v>
       </c>
-      <c r="AU27" s="2">
-        <f>AU26+AU25+AU24</f>
+      <c r="AY27" s="2">
+        <f>AY26+AY25+AY24</f>
         <v>420.04899999999998</v>
       </c>
-      <c r="AV27" s="2">
-        <f>AV26+AV25+AV24</f>
+      <c r="AZ27" s="2">
+        <f>AZ26+AZ25+AZ24</f>
         <v>418.89800000000002</v>
       </c>
-      <c r="BG27" s="4">
-        <f t="shared" ref="BG27:BI27" si="53">SUM(BG24:BG26)</f>
+      <c r="BK27" s="4">
+        <f t="shared" ref="BK27:BM27" si="53">SUM(BK24:BK26)</f>
         <v>15159</v>
       </c>
-      <c r="BH27" s="4">
+      <c r="BL27" s="4">
         <f t="shared" si="53"/>
         <v>19541</v>
       </c>
-      <c r="BI27" s="4">
+      <c r="BM27" s="4">
         <f t="shared" si="53"/>
         <v>25750</v>
       </c>
-      <c r="BJ27" s="4">
-        <f t="shared" ref="BJ27" si="54">SUM(BJ24:BJ26)</f>
+      <c r="BN27" s="4">
+        <f t="shared" ref="BN27" si="54">SUM(BN24:BN26)</f>
         <v>36363</v>
       </c>
-      <c r="BK27" s="4">
-        <f t="shared" ref="BK27:BL27" si="55">SUM(BK24:BK26)</f>
+      <c r="BO27" s="4">
+        <f t="shared" ref="BO27:BP27" si="55">SUM(BO24:BO26)</f>
         <v>46987</v>
       </c>
-      <c r="BL27" s="4">
+      <c r="BP27" s="4">
         <f t="shared" si="55"/>
         <v>60014</v>
       </c>
-      <c r="BM27" s="4">
-        <f t="shared" ref="BM27:BN27" si="56">SUM(BM24:BM26)</f>
+      <c r="BQ27" s="4">
+        <f t="shared" ref="BQ27:BR27" si="56">SUM(BQ24:BQ26)</f>
         <v>71416</v>
       </c>
-      <c r="BN27" s="4">
+      <c r="BR27" s="4">
         <f t="shared" si="56"/>
         <v>97426</v>
       </c>
-      <c r="BO27" s="4">
-        <f t="shared" ref="BO27:BP27" si="57">SUM(BO24:BO26)</f>
+      <c r="BS27" s="4">
+        <f t="shared" ref="BS27:BT27" si="57">SUM(BS24:BS26)</f>
         <v>127342</v>
       </c>
-      <c r="BP27" s="4">
+      <c r="BT27" s="4">
         <f t="shared" si="57"/>
         <v>141808</v>
       </c>
-      <c r="BQ27" s="4">
-        <f t="shared" ref="BQ27:BW27" si="58">SUM(BQ24:BQ26)</f>
+      <c r="BU27" s="4">
+        <f t="shared" ref="BU27:CA27" si="58">SUM(BU24:BU26)</f>
         <v>146062.24000000002</v>
       </c>
-      <c r="BR27" s="4">
+      <c r="BV27" s="4">
         <f t="shared" si="58"/>
         <v>150444.10720000003</v>
       </c>
-      <c r="BS27" s="4">
+      <c r="BW27" s="4">
         <f t="shared" si="58"/>
         <v>154957.43041600002</v>
       </c>
-      <c r="BT27" s="4">
+      <c r="BX27" s="4">
         <f t="shared" si="58"/>
         <v>159606.15332848002</v>
       </c>
-      <c r="BU27" s="4">
+      <c r="BY27" s="4">
         <f t="shared" si="58"/>
         <v>164394.33792833443</v>
       </c>
-      <c r="BV27" s="4">
+      <c r="BZ27" s="4">
         <f t="shared" si="58"/>
         <v>169326.16806618447</v>
       </c>
-      <c r="BW27" s="4">
+      <c r="CA27" s="4">
         <f t="shared" si="58"/>
         <v>174405.95310816998</v>
       </c>
     </row>
-    <row r="28" spans="2:137" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:141" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -5174,88 +5210,92 @@
         <f t="shared" si="67"/>
         <v>70234.208000000013</v>
       </c>
-      <c r="AT28" s="2">
-        <f>AT23-AT27</f>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AX28" s="2">
+        <f>AX23-AX27</f>
         <v>-469.30999999999995</v>
       </c>
-      <c r="AU28" s="2">
-        <f>AU23-AU27</f>
+      <c r="AY28" s="2">
+        <f>AY23-AY27</f>
         <v>180.10199999999998</v>
       </c>
-      <c r="AV28" s="2">
-        <f>AV23-AV27</f>
+      <c r="AZ28" s="2">
+        <f>AZ23-AZ27</f>
         <v>361.23799999999972</v>
       </c>
-      <c r="BG28" s="4">
-        <f t="shared" ref="BG28:BI28" si="68">BG23-BG27</f>
+      <c r="BK28" s="4">
+        <f t="shared" ref="BK28:BM28" si="68">BK23-BK27</f>
         <v>311</v>
       </c>
-      <c r="BH28" s="4">
+      <c r="BL28" s="4">
         <f t="shared" si="68"/>
         <v>2404</v>
       </c>
-      <c r="BI28" s="4">
+      <c r="BM28" s="4">
         <f t="shared" si="68"/>
         <v>4353</v>
       </c>
-      <c r="BJ28" s="4">
-        <f t="shared" ref="BJ28" si="69">BJ23-BJ27</f>
+      <c r="BN28" s="4">
+        <f t="shared" ref="BN28" si="69">BN23-BN27</f>
         <v>4320</v>
       </c>
-      <c r="BK28" s="4">
-        <f t="shared" ref="BK28:BL28" si="70">BK23-BK27</f>
+      <c r="BO28" s="4">
+        <f t="shared" ref="BO28:BP28" si="70">BO23-BO27</f>
         <v>12717</v>
       </c>
-      <c r="BL28" s="4">
+      <c r="BP28" s="4">
         <f t="shared" si="70"/>
         <v>14741</v>
       </c>
-      <c r="BM28" s="4">
-        <f t="shared" ref="BM28:BN28" si="71">BM23-BM27</f>
+      <c r="BQ28" s="4">
+        <f t="shared" ref="BQ28:BR28" si="71">BQ23-BQ27</f>
         <v>22825</v>
       </c>
-      <c r="BN28" s="4">
+      <c r="BR28" s="4">
         <f t="shared" si="71"/>
         <v>24941</v>
       </c>
-      <c r="BO28" s="4">
-        <f t="shared" ref="BO28:BP28" si="72">BO23-BO27</f>
+      <c r="BS28" s="4">
+        <f t="shared" ref="BS28:BT28" si="72">BS23-BS27</f>
         <v>13511</v>
       </c>
-      <c r="BP28" s="4">
+      <c r="BT28" s="4">
         <f t="shared" si="72"/>
         <v>37619</v>
       </c>
-      <c r="BQ28" s="4">
-        <f t="shared" ref="BQ28:BW28" si="73">BQ23-BQ27</f>
+      <c r="BU28" s="4">
+        <f t="shared" ref="BU28:CA28" si="73">BU23-BU27</f>
         <v>36778.059999999969</v>
       </c>
-      <c r="BR28" s="4">
+      <c r="BV28" s="4">
         <f t="shared" si="73"/>
         <v>49288.007800000021</v>
       </c>
-      <c r="BS28" s="4">
+      <c r="BW28" s="4">
         <f t="shared" si="73"/>
         <v>65783.711333999934</v>
       </c>
-      <c r="BT28" s="4">
+      <c r="BX28" s="4">
         <f t="shared" si="73"/>
         <v>84845.716709020024</v>
       </c>
-      <c r="BU28" s="4">
+      <c r="BY28" s="4">
         <f t="shared" si="73"/>
         <v>97550.603371040663</v>
       </c>
-      <c r="BV28" s="4">
+      <c r="BZ28" s="4">
         <f t="shared" si="73"/>
         <v>108746.54501015946</v>
       </c>
-      <c r="BW28" s="4">
+      <c r="CA28" s="4">
         <f t="shared" si="73"/>
         <v>120903.97280519098</v>
       </c>
     </row>
-    <row r="29" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -5370,88 +5410,88 @@
         <f>-199+1085-516+1117</f>
         <v>1487</v>
       </c>
-      <c r="AT29" s="2">
+      <c r="AX29" s="2">
         <f>29.103-139.232</f>
         <v>-110.12899999999999</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AY29" s="2">
         <f>23.687-142.925</f>
         <v>-119.23800000000001</v>
       </c>
-      <c r="AV29" s="2">
+      <c r="AZ29" s="2">
         <f>21.955-129.979</f>
         <v>-108.02400000000002</v>
       </c>
-      <c r="BG29" s="2">
+      <c r="BK29" s="2">
         <f>-133+39-210-118</f>
         <v>-422</v>
       </c>
-      <c r="BH29" s="2">
+      <c r="BL29" s="2">
         <f>-171+50-459-256</f>
         <v>-836</v>
       </c>
-      <c r="BI29" s="2">
+      <c r="BM29" s="2">
         <f>-167+100-484+90</f>
         <v>-461</v>
       </c>
-      <c r="BJ29" s="2">
+      <c r="BN29" s="2">
         <f>-214+202-848+346</f>
         <v>-514</v>
       </c>
-      <c r="BK29" s="2">
+      <c r="BO29" s="2">
         <f>-296+440-1417-183</f>
         <v>-1456</v>
       </c>
-      <c r="BL29" s="2">
+      <c r="BP29" s="2">
         <f>SUM(K29:N29)</f>
         <v>-766</v>
       </c>
-      <c r="BM29" s="2">
+      <c r="BQ29" s="2">
         <f>SUM(O29:R29)</f>
         <v>1353</v>
       </c>
-      <c r="BN29" s="2">
+      <c r="BR29" s="2">
         <f>SUM(S29:V29)</f>
         <v>13210</v>
       </c>
-      <c r="BO29" s="2">
+      <c r="BS29" s="2">
         <f>SUM(W29:Z29)</f>
         <v>-9603</v>
       </c>
-      <c r="BP29" s="2">
+      <c r="BT29" s="2">
         <f>SUM(AA29:AD29)</f>
         <v>-62</v>
       </c>
-      <c r="BQ29" s="2">
-        <f>+BP47*$BZ$46</f>
+      <c r="BU29" s="2">
+        <f>+BT47*$CD$46</f>
         <v>284.66000000000003</v>
       </c>
-      <c r="BR29" s="2">
-        <f t="shared" ref="BR29:BW29" si="74">+BQ47*$BZ$46</f>
+      <c r="BV29" s="2">
+        <f t="shared" ref="BV29:CA29" si="74">+BU47*$CD$46</f>
         <v>485.79</v>
       </c>
-      <c r="BS29" s="2">
+      <c r="BW29" s="2">
         <f t="shared" si="74"/>
         <v>908.86728130000017</v>
       </c>
-      <c r="BT29" s="2">
+      <c r="BX29" s="2">
         <f t="shared" si="74"/>
         <v>1475.7541995300498</v>
       </c>
-      <c r="BU29" s="2">
+      <c r="BY29" s="2">
         <f t="shared" si="74"/>
         <v>2209.4867022527255</v>
       </c>
-      <c r="BV29" s="2">
+      <c r="BZ29" s="2">
         <f t="shared" si="74"/>
         <v>3057.4474678757192</v>
       </c>
-      <c r="BW29" s="2">
+      <c r="CA29" s="2">
         <f t="shared" si="74"/>
         <v>4007.7814039390187</v>
       </c>
     </row>
-    <row r="30" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -5578,88 +5618,92 @@
         <f t="shared" si="81"/>
         <v>70234.208000000013</v>
       </c>
-      <c r="AT30" s="2">
-        <f>AT28+AT29</f>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AX30" s="2">
+        <f>AX28+AX29</f>
         <v>-579.43899999999996</v>
       </c>
-      <c r="AU30" s="2">
-        <f>AU28+AU29</f>
+      <c r="AY30" s="2">
+        <f>AY28+AY29</f>
         <v>60.863999999999962</v>
       </c>
-      <c r="AV30" s="2">
-        <f>AV28+AV29</f>
+      <c r="AZ30" s="2">
+        <f>AZ28+AZ29</f>
         <v>253.21399999999971</v>
       </c>
-      <c r="BG30" s="4">
-        <f t="shared" ref="BG30:BI30" si="82">BG28+BG29</f>
+      <c r="BK30" s="4">
+        <f t="shared" ref="BK30:BM30" si="82">BK28+BK29</f>
         <v>-111</v>
       </c>
-      <c r="BH30" s="4">
+      <c r="BL30" s="4">
         <f t="shared" si="82"/>
         <v>1568</v>
       </c>
-      <c r="BI30" s="4">
+      <c r="BM30" s="4">
         <f t="shared" si="82"/>
         <v>3892</v>
       </c>
-      <c r="BJ30" s="4">
-        <f t="shared" ref="BJ30" si="83">BJ28+BJ29</f>
+      <c r="BN30" s="4">
+        <f t="shared" ref="BN30" si="83">BN28+BN29</f>
         <v>3806</v>
       </c>
-      <c r="BK30" s="4">
-        <f t="shared" ref="BK30:BL30" si="84">BK28+BK29</f>
+      <c r="BO30" s="4">
+        <f t="shared" ref="BO30:BP30" si="84">BO28+BO29</f>
         <v>11261</v>
       </c>
-      <c r="BL30" s="4">
+      <c r="BP30" s="4">
         <f t="shared" si="84"/>
         <v>13975</v>
       </c>
-      <c r="BM30" s="4">
-        <f t="shared" ref="BM30:BW30" si="85">BM28+BM29</f>
+      <c r="BQ30" s="4">
+        <f t="shared" ref="BQ30:CA30" si="85">BQ28+BQ29</f>
         <v>24178</v>
       </c>
-      <c r="BN30" s="4">
+      <c r="BR30" s="4">
         <f t="shared" si="85"/>
         <v>38151</v>
       </c>
-      <c r="BO30" s="4">
+      <c r="BS30" s="4">
         <f t="shared" si="85"/>
         <v>3908</v>
       </c>
-      <c r="BP30" s="4">
+      <c r="BT30" s="4">
         <f t="shared" si="85"/>
         <v>37557</v>
       </c>
-      <c r="BQ30" s="4">
+      <c r="BU30" s="4">
         <f t="shared" si="85"/>
         <v>37062.719999999972</v>
       </c>
-      <c r="BR30" s="4">
+      <c r="BV30" s="4">
         <f t="shared" si="85"/>
         <v>49773.797800000022</v>
       </c>
-      <c r="BS30" s="4">
+      <c r="BW30" s="4">
         <f t="shared" si="85"/>
         <v>66692.578615299935</v>
       </c>
-      <c r="BT30" s="4">
+      <c r="BX30" s="4">
         <f t="shared" si="85"/>
         <v>86321.47090855008</v>
       </c>
-      <c r="BU30" s="4">
+      <c r="BY30" s="4">
         <f t="shared" si="85"/>
         <v>99760.090073293395</v>
       </c>
-      <c r="BV30" s="4">
+      <c r="BZ30" s="4">
         <f t="shared" si="85"/>
         <v>111803.99247803519</v>
       </c>
-      <c r="BW30" s="4">
+      <c r="CA30" s="4">
         <f t="shared" si="85"/>
         <v>124911.75420913</v>
       </c>
     </row>
-    <row r="31" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
@@ -5774,85 +5818,85 @@
         <f>2678+15</f>
         <v>2693</v>
       </c>
-      <c r="AT31" s="2">
+      <c r="AX31" s="2">
         <v>0</v>
       </c>
-      <c r="AU31" s="2">
+      <c r="AY31" s="2">
         <v>0</v>
       </c>
-      <c r="AV31" s="2">
+      <c r="AZ31" s="2">
         <v>0</v>
       </c>
-      <c r="BG31" s="2">
+      <c r="BK31" s="2">
         <f>167-37</f>
         <v>130</v>
       </c>
-      <c r="BH31" s="2">
+      <c r="BL31" s="2">
         <f>950+22</f>
         <v>972</v>
       </c>
-      <c r="BI31" s="2">
+      <c r="BM31" s="2">
         <f>1425+96</f>
         <v>1521</v>
       </c>
-      <c r="BJ31" s="2">
+      <c r="BN31" s="2">
         <f>769+4</f>
         <v>773</v>
       </c>
-      <c r="BK31" s="2">
+      <c r="BO31" s="2">
         <f>1197-9</f>
         <v>1188</v>
       </c>
-      <c r="BL31" s="2">
+      <c r="BP31" s="2">
         <f>SUM(K31:N31)</f>
         <v>2387</v>
       </c>
-      <c r="BM31" s="2">
+      <c r="BQ31" s="2">
         <f>SUM(O31:R31)</f>
         <v>2847</v>
       </c>
-      <c r="BN31" s="2">
+      <c r="BR31" s="2">
         <f>SUM(S31:V31)</f>
         <v>4787</v>
       </c>
-      <c r="BO31" s="2">
+      <c r="BS31" s="2">
         <f>SUM(W31:Z31)</f>
         <v>-1349</v>
       </c>
-      <c r="BP31" s="2">
+      <c r="BT31" s="2">
         <f>SUM(AA31:AD31)</f>
         <v>7132</v>
       </c>
-      <c r="BQ31" s="2">
-        <f>+BQ30*0.15</f>
+      <c r="BU31" s="2">
+        <f>+BU30*0.15</f>
         <v>5559.4079999999958</v>
       </c>
-      <c r="BR31" s="2">
-        <f t="shared" ref="BR31:BW31" si="86">+BR30*0.15</f>
+      <c r="BV31" s="2">
+        <f t="shared" ref="BV31:CA31" si="86">+BV30*0.15</f>
         <v>7466.0696700000026</v>
       </c>
-      <c r="BS31" s="2">
+      <c r="BW31" s="2">
         <f t="shared" si="86"/>
         <v>10003.88679229499</v>
       </c>
-      <c r="BT31" s="2">
+      <c r="BX31" s="2">
         <f t="shared" si="86"/>
         <v>12948.220636282511</v>
       </c>
-      <c r="BU31" s="2">
+      <c r="BY31" s="2">
         <f t="shared" si="86"/>
         <v>14964.013510994009</v>
       </c>
-      <c r="BV31" s="2">
+      <c r="BZ31" s="2">
         <f t="shared" si="86"/>
         <v>16770.598871705279</v>
       </c>
-      <c r="BW31" s="2">
+      <c r="CA31" s="2">
         <f t="shared" si="86"/>
         <v>18736.763131369498</v>
       </c>
     </row>
-    <row r="32" spans="2:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
@@ -5979,108 +6023,96 @@
         <f t="shared" si="93"/>
         <v>70234.208000000013</v>
       </c>
-      <c r="AT32" s="2">
-        <f>AT30-AT31</f>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AX32" s="2">
+        <f>AX30-AX31</f>
         <v>-579.43899999999996</v>
       </c>
-      <c r="AU32" s="2">
-        <f>AU30-AU31</f>
+      <c r="AY32" s="2">
+        <f>AY30-AY31</f>
         <v>60.863999999999962</v>
       </c>
-      <c r="AV32" s="2">
-        <f>AV30-AV31</f>
+      <c r="AZ32" s="2">
+        <f>AZ30-AZ31</f>
         <v>253.21399999999971</v>
       </c>
-      <c r="BG32" s="4">
-        <f t="shared" ref="BG32:BI32" si="94">BG30-BG31</f>
+      <c r="BK32" s="4">
+        <f t="shared" ref="BK32:BM32" si="94">BK30-BK31</f>
         <v>-241</v>
       </c>
-      <c r="BH32" s="4">
+      <c r="BL32" s="4">
         <f t="shared" si="94"/>
         <v>596</v>
       </c>
-      <c r="BI32" s="4">
+      <c r="BM32" s="4">
         <f t="shared" si="94"/>
         <v>2371</v>
       </c>
-      <c r="BJ32" s="4">
-        <f t="shared" ref="BJ32" si="95">BJ30-BJ31</f>
+      <c r="BN32" s="4">
+        <f t="shared" ref="BN32" si="95">BN30-BN31</f>
         <v>3033</v>
       </c>
-      <c r="BK32" s="4">
-        <f t="shared" ref="BK32:BL32" si="96">BK30-BK31</f>
+      <c r="BO32" s="4">
+        <f t="shared" ref="BO32:BP32" si="96">BO30-BO31</f>
         <v>10073</v>
       </c>
-      <c r="BL32" s="4">
+      <c r="BP32" s="4">
         <f t="shared" si="96"/>
         <v>11588</v>
       </c>
-      <c r="BM32" s="4">
-        <f t="shared" ref="BM32:BP32" si="97">BM30-BM31</f>
+      <c r="BQ32" s="4">
+        <f t="shared" ref="BQ32:BT32" si="97">BQ30-BQ31</f>
         <v>21331</v>
       </c>
-      <c r="BN32" s="4">
+      <c r="BR32" s="4">
         <f t="shared" si="97"/>
         <v>33364</v>
       </c>
-      <c r="BO32" s="4">
+      <c r="BS32" s="4">
         <f t="shared" si="97"/>
         <v>5257</v>
       </c>
-      <c r="BP32" s="4">
+      <c r="BT32" s="4">
         <f t="shared" si="97"/>
         <v>30425</v>
       </c>
-      <c r="BQ32" s="4">
-        <f t="shared" ref="BQ32:BW32" si="98">BQ30-BQ31</f>
+      <c r="BU32" s="4">
+        <f t="shared" ref="BU32:CA32" si="98">BU30-BU31</f>
         <v>31503.311999999976</v>
       </c>
-      <c r="BR32" s="4">
+      <c r="BV32" s="4">
         <f t="shared" si="98"/>
         <v>42307.728130000018</v>
       </c>
-      <c r="BS32" s="4">
+      <c r="BW32" s="4">
         <f t="shared" si="98"/>
         <v>56688.691823004949</v>
       </c>
-      <c r="BT32" s="4">
+      <c r="BX32" s="4">
         <f t="shared" si="98"/>
         <v>73373.250272267571</v>
       </c>
-      <c r="BU32" s="4">
+      <c r="BY32" s="4">
         <f t="shared" si="98"/>
         <v>84796.076562299393</v>
       </c>
-      <c r="BV32" s="4">
+      <c r="BZ32" s="4">
         <f t="shared" si="98"/>
         <v>95033.393606329904</v>
       </c>
-      <c r="BW32" s="4">
+      <c r="CA32" s="4">
         <f t="shared" si="98"/>
         <v>106174.9910777605</v>
       </c>
-      <c r="BX32" s="2">
-        <f>+BW32*(1+$BZ$47)</f>
+      <c r="CB32" s="2">
+        <f>+CA32*(1+$CD$47)</f>
         <v>106174.9910777605</v>
       </c>
-      <c r="BY32" s="2">
-        <f t="shared" ref="BY32:EG32" si="99">+BX32*(1+$BZ$47)</f>
-        <v>106174.9910777605</v>
-      </c>
-      <c r="BZ32" s="2">
-        <f t="shared" si="99"/>
-        <v>106174.9910777605</v>
-      </c>
-      <c r="CA32" s="2">
-        <f t="shared" si="99"/>
-        <v>106174.9910777605</v>
-      </c>
-      <c r="CB32" s="2">
-        <f t="shared" si="99"/>
-        <v>106174.9910777605</v>
-      </c>
       <c r="CC32" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="CC32:EK32" si="99">+CB32*(1+$CD$47)</f>
         <v>106174.9910777605</v>
       </c>
       <c r="CD32" s="2">
@@ -6307,8 +6339,24 @@
         <f t="shared" si="99"/>
         <v>106174.9910777605</v>
       </c>
+      <c r="EH32" s="2">
+        <f t="shared" si="99"/>
+        <v>106174.9910777605</v>
+      </c>
+      <c r="EI32" s="2">
+        <f t="shared" si="99"/>
+        <v>106174.9910777605</v>
+      </c>
+      <c r="EJ32" s="2">
+        <f t="shared" si="99"/>
+        <v>106174.9910777605</v>
+      </c>
+      <c r="EK32" s="2">
+        <f t="shared" si="99"/>
+        <v>106174.9910777605</v>
+      </c>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -6435,88 +6483,92 @@
         <f t="shared" si="106"/>
         <v>6.4995565426614856</v>
       </c>
-      <c r="AT33" s="1">
-        <f>AT32/AT34</f>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AX33" s="1">
+        <f>AX32/AX34</f>
         <v>-1.5909431620681416</v>
       </c>
-      <c r="AU33" s="1">
-        <f>AU32/AU34</f>
+      <c r="AY33" s="1">
+        <f>AY32/AY34</f>
         <v>0.16086139500955421</v>
       </c>
-      <c r="AV33" s="1">
-        <f>AV32/AV34</f>
+      <c r="AZ33" s="1">
+        <f>AZ32/AZ34</f>
         <v>0.60382208741105259</v>
       </c>
-      <c r="BG33" s="7">
-        <f t="shared" ref="BG33" si="107">BG32/BG34</f>
+      <c r="BK33" s="7">
+        <f t="shared" ref="BK33" si="107">BK32/BK34</f>
         <v>-0.52164502164502169</v>
       </c>
-      <c r="BH33" s="7">
-        <f t="shared" ref="BH33" si="108">BH32/BH34</f>
+      <c r="BL33" s="7">
+        <f t="shared" ref="BL33" si="108">BL32/BL34</f>
         <v>1.249475890985325</v>
       </c>
-      <c r="BI33" s="7">
-        <f t="shared" ref="BI33" si="109">BI32/BI34</f>
+      <c r="BM33" s="7">
+        <f t="shared" ref="BM33" si="109">BM32/BM34</f>
         <v>4.8987603305785123</v>
       </c>
-      <c r="BJ33" s="7">
-        <f t="shared" ref="BJ33" si="110">BJ32/BJ34</f>
+      <c r="BN33" s="7">
+        <f t="shared" ref="BN33" si="110">BN32/BN34</f>
         <v>6.1521298174442194</v>
       </c>
-      <c r="BK33" s="7">
-        <f t="shared" ref="BK33:BL33" si="111">BK32/BK34</f>
+      <c r="BO33" s="7">
+        <f t="shared" ref="BO33:BP33" si="111">BO32/BO34</f>
         <v>20.146000000000001</v>
       </c>
-      <c r="BL33" s="7">
+      <c r="BP33" s="7">
         <f t="shared" si="111"/>
         <v>23.014895729890764</v>
       </c>
-      <c r="BM33" s="7">
-        <f>BM32/BM34</f>
+      <c r="BQ33" s="7">
+        <f>BQ32/BQ34</f>
         <v>41.825490196078434</v>
       </c>
-      <c r="BN33" s="7">
-        <f>BN32/BN34</f>
+      <c r="BR33" s="7">
+        <f>BR32/BR34</f>
         <v>6.1676679914964412</v>
       </c>
-      <c r="BO33" s="7">
-        <f t="shared" ref="BO33:BP33" si="112">BO32/BO34</f>
+      <c r="BS33" s="7">
+        <f t="shared" ref="BS33:BT33" si="112">BS32/BS34</f>
         <v>0.51665847665847664</v>
       </c>
-      <c r="BP33" s="7">
+      <c r="BT33" s="7">
         <f t="shared" si="112"/>
         <v>2.9001048517777144</v>
       </c>
-      <c r="BQ33" s="7">
-        <f t="shared" ref="BQ33" si="113">BQ32/BQ34</f>
+      <c r="BU33" s="7">
+        <f t="shared" ref="BU33" si="113">BU32/BU34</f>
         <v>2.9384676802537055</v>
       </c>
-      <c r="BR33" s="7">
-        <f t="shared" ref="BR33" si="114">BR32/BR34</f>
+      <c r="BV33" s="7">
+        <f t="shared" ref="BV33" si="114">BV32/BV34</f>
         <v>3.9163850065955446</v>
       </c>
-      <c r="BS33" s="7">
-        <f t="shared" ref="BS33" si="115">BS32/BS34</f>
+      <c r="BW33" s="7">
+        <f t="shared" ref="BW33" si="115">BW32/BW34</f>
         <v>5.2476167478655853</v>
       </c>
-      <c r="BT33" s="7">
-        <f t="shared" ref="BT33" si="116">BT32/BT34</f>
+      <c r="BX33" s="7">
+        <f t="shared" ref="BX33" si="116">BX32/BX34</f>
         <v>6.79209000229271</v>
       </c>
-      <c r="BU33" s="7">
-        <f t="shared" ref="BU33" si="117">BU32/BU34</f>
+      <c r="BY33" s="7">
+        <f t="shared" ref="BY33" si="117">BY32/BY34</f>
         <v>7.8494898578879813</v>
       </c>
-      <c r="BV33" s="7">
-        <f t="shared" ref="BV33" si="118">BV32/BV34</f>
+      <c r="BZ33" s="7">
+        <f t="shared" ref="BZ33" si="118">BZ32/BZ34</f>
         <v>8.7971482822734863</v>
       </c>
-      <c r="BW33" s="7">
-        <f t="shared" ref="BW33" si="119">BW32/BW34</f>
+      <c r="CA33" s="7">
+        <f t="shared" ref="CA33" si="119">CA32/CA34</f>
         <v>9.8285150612353789</v>
       </c>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
@@ -6609,83 +6661,87 @@
         <f>+AK34</f>
         <v>10806</v>
       </c>
-      <c r="AR34" s="2">
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AV34" s="2">
         <v>161.096869</v>
       </c>
-      <c r="AT34" s="2">
+      <c r="AX34" s="2">
         <v>364.21100000000001</v>
       </c>
-      <c r="AU34" s="2">
+      <c r="AY34" s="2">
         <v>378.363</v>
       </c>
-      <c r="AV34" s="2">
+      <c r="AZ34" s="2">
         <v>419.35199999999998</v>
       </c>
-      <c r="BG34" s="2">
+      <c r="BK34" s="2">
         <v>462</v>
       </c>
-      <c r="BH34" s="2">
+      <c r="BL34" s="2">
         <v>477</v>
       </c>
-      <c r="BI34" s="2">
+      <c r="BM34" s="2">
         <v>484</v>
       </c>
-      <c r="BJ34" s="4">
+      <c r="BN34" s="4">
         <v>493</v>
       </c>
-      <c r="BK34" s="4">
+      <c r="BO34" s="4">
         <v>500</v>
       </c>
-      <c r="BL34" s="4">
+      <c r="BP34" s="4">
         <f>AVERAGE(K34:N34)</f>
         <v>503.5</v>
       </c>
-      <c r="BM34" s="4">
+      <c r="BQ34" s="4">
         <f>AVERAGE(O34:R34)</f>
         <v>510</v>
       </c>
-      <c r="BN34" s="4">
+      <c r="BR34" s="4">
         <f>AVERAGE(S34:V34)</f>
         <v>5409.5</v>
       </c>
-      <c r="BO34" s="2">
+      <c r="BS34" s="2">
         <f>X34</f>
         <v>10175</v>
       </c>
-      <c r="BP34" s="2">
+      <c r="BT34" s="2">
         <f>AVERAGE(AA34:AD34)</f>
         <v>10491</v>
       </c>
-      <c r="BQ34" s="2">
+      <c r="BU34" s="2">
         <f>AVERAGE(AE34:AH34)</f>
         <v>10721</v>
       </c>
-      <c r="BR34" s="2">
+      <c r="BV34" s="2">
         <f>AVERAGE(AI34:AL34)</f>
         <v>10802.75</v>
       </c>
-      <c r="BS34" s="2">
-        <f t="shared" ref="BS34:BW34" si="120">+BR34</f>
+      <c r="BW34" s="2">
+        <f t="shared" ref="BW34:CA34" si="120">+BV34</f>
         <v>10802.75</v>
       </c>
-      <c r="BT34" s="2">
+      <c r="BX34" s="2">
         <f t="shared" si="120"/>
         <v>10802.75</v>
       </c>
-      <c r="BU34" s="2">
+      <c r="BY34" s="2">
         <f t="shared" si="120"/>
         <v>10802.75</v>
       </c>
-      <c r="BV34" s="2">
+      <c r="BZ34" s="2">
         <f t="shared" si="120"/>
         <v>10802.75</v>
       </c>
-      <c r="BW34" s="2">
+      <c r="CA34" s="2">
         <f t="shared" si="120"/>
         <v>10802.75</v>
       </c>
     </row>
-    <row r="36" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:82" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -6800,140 +6856,144 @@
         <f t="shared" si="127"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ36" s="15">
-        <f t="shared" ref="AQ36:AR36" si="128">AQ20/AP20-1</f>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AU36" s="15">
+        <f t="shared" ref="AU36:AV36" si="128">AU20/AT20-1</f>
         <v>3.1263372285789677</v>
       </c>
-      <c r="AR36" s="15">
+      <c r="AV36" s="15">
         <f t="shared" si="128"/>
         <v>1.6890585567192891</v>
       </c>
-      <c r="AS36" s="15">
-        <f t="shared" ref="AS36" si="129">AS20/AR20-1</f>
+      <c r="AW36" s="15">
+        <f t="shared" ref="AW36" si="129">AW20/AV20-1</f>
         <v>0.68430132470321792</v>
       </c>
-      <c r="AT36" s="15">
-        <f t="shared" ref="AT36" si="130">AT20/AS20-1</f>
+      <c r="AX36" s="15">
+        <f t="shared" ref="AX36" si="130">AX20/AW20-1</f>
         <v>0.1305040617556299</v>
       </c>
-      <c r="AU36" s="15">
-        <f t="shared" ref="AU36" si="131">AU20/AT20-1</f>
+      <c r="AY36" s="15">
+        <f t="shared" ref="AY36" si="131">AY20/AX20-1</f>
         <v>0.25957418461821291</v>
       </c>
-      <c r="AV36" s="15">
-        <f t="shared" ref="AV36" si="132">AV20/AU20-1</f>
+      <c r="AZ36" s="15">
+        <f t="shared" ref="AZ36" si="132">AZ20/AY20-1</f>
         <v>0.3383637567455966</v>
       </c>
-      <c r="AW36" s="15">
-        <f t="shared" ref="AW36" si="133">AW20/AV20-1</f>
+      <c r="BA36" s="15">
+        <f t="shared" ref="BA36" si="133">BA20/AZ20-1</f>
         <v>0.31485481977597884</v>
       </c>
-      <c r="AX36" s="15">
-        <f t="shared" ref="AX36" si="134">AX20/AW20-1</f>
+      <c r="BB36" s="15">
+        <f t="shared" ref="BB36" si="134">BB20/BA20-1</f>
         <v>0.22670134373645423</v>
       </c>
-      <c r="AY36" s="15">
-        <f t="shared" ref="AY36" si="135">AY20/AX20-1</f>
+      <c r="BC36" s="15">
+        <f t="shared" ref="BC36" si="135">BC20/BB20-1</f>
         <v>0.26160188457008249</v>
       </c>
-      <c r="AZ36" s="15">
-        <f t="shared" ref="AZ36" si="136">AZ20/AY20-1</f>
+      <c r="BD36" s="15">
+        <f t="shared" ref="BD36" si="136">BD20/BC20-1</f>
         <v>0.38502474092054895</v>
       </c>
-      <c r="BA36" s="15">
-        <f t="shared" ref="BA36" si="137">BA20/AZ20-1</f>
+      <c r="BE36" s="15">
+        <f t="shared" ref="BE36" si="137">BE20/BD20-1</f>
         <v>0.29194472531176263</v>
       </c>
-      <c r="BB36" s="15">
-        <f t="shared" ref="BB36" si="138">BB20/BA20-1</f>
+      <c r="BF36" s="15">
+        <f t="shared" ref="BF36" si="138">BF20/BE20-1</f>
         <v>0.27877491391004905</v>
       </c>
-      <c r="BC36" s="15">
-        <f t="shared" ref="BC36" si="139">BC20/BB20-1</f>
+      <c r="BG36" s="15">
+        <f t="shared" ref="BG36" si="139">BG20/BF20-1</f>
         <v>0.39556897466236896</v>
       </c>
-      <c r="BD36" s="15">
-        <f t="shared" ref="BD36" si="140">BD20/BC20-1</f>
+      <c r="BH36" s="15">
+        <f t="shared" ref="BH36" si="140">BH20/BG20-1</f>
         <v>0.40559583674424049</v>
       </c>
-      <c r="BE36" s="15">
-        <f t="shared" ref="BE36" si="141">BE20/BD20-1</f>
+      <c r="BI36" s="15">
+        <f t="shared" ref="BI36" si="141">BI20/BH20-1</f>
         <v>0.27073236682821311</v>
       </c>
-      <c r="BF36" s="15">
-        <f t="shared" ref="BF36:BJ36" si="142">BF20/BE20-1</f>
+      <c r="BJ36" s="15">
+        <f t="shared" ref="BJ36:BN36" si="142">BJ20/BI20-1</f>
         <v>0.21866662301736706</v>
       </c>
-      <c r="BG36" s="15">
+      <c r="BK36" s="15">
         <f t="shared" si="142"/>
         <v>0.1952398861011122</v>
       </c>
-      <c r="BH36" s="15">
+      <c r="BL36" s="15">
         <f t="shared" si="142"/>
         <v>0.20247673843664304</v>
       </c>
-      <c r="BI36" s="15">
+      <c r="BM36" s="15">
         <f t="shared" si="142"/>
         <v>0.27083528026465808</v>
       </c>
-      <c r="BJ36" s="15">
+      <c r="BN36" s="15">
         <f t="shared" si="142"/>
         <v>0.30796326119408479</v>
       </c>
-      <c r="BK36" s="15">
-        <f t="shared" ref="BK36" si="143">BK20/BJ20-1</f>
+      <c r="BO36" s="15">
+        <f t="shared" ref="BO36" si="143">BO20/BN20-1</f>
         <v>0.3093396152159491</v>
       </c>
-      <c r="BL36" s="15">
-        <f t="shared" ref="BL36" si="144">BL20/BK20-1</f>
+      <c r="BP36" s="15">
+        <f t="shared" ref="BP36" si="144">BP20/BO20-1</f>
         <v>0.20454125820676983</v>
       </c>
-      <c r="BM36" s="15">
-        <f t="shared" ref="BM36" si="145">BM20/BL20-1</f>
+      <c r="BQ36" s="15">
+        <f t="shared" ref="BQ36" si="145">BQ20/BP20-1</f>
         <v>0.37623430604373276</v>
       </c>
-      <c r="BN36" s="15">
-        <f>BN20/BM20-1</f>
+      <c r="BR36" s="15">
+        <f>BR20/BQ20-1</f>
         <v>0.21695366571345676</v>
       </c>
-      <c r="BO36" s="15">
-        <f t="shared" ref="BO36:BW36" si="146">BO20/BN20-1</f>
+      <c r="BS36" s="15">
+        <f t="shared" ref="BS36:CA36" si="146">BS20/BR20-1</f>
         <v>9.399517263985091E-2</v>
       </c>
-      <c r="BP36" s="15">
-        <f>BP20/BO20-1</f>
+      <c r="BT36" s="15">
+        <f>BT20/BS20-1</f>
         <v>0.1182957412988368</v>
       </c>
-      <c r="BQ36" s="15">
+      <c r="BU36" s="15">
         <f t="shared" si="146"/>
         <v>0.1099089224666614</v>
       </c>
-      <c r="BR36" s="15">
+      <c r="BV36" s="15">
         <f t="shared" si="146"/>
         <v>7.2097658313465374E-2</v>
       </c>
-      <c r="BS36" s="15">
+      <c r="BW36" s="15">
         <f t="shared" si="146"/>
         <v>8.4845322644705679E-2</v>
       </c>
-      <c r="BT36" s="15">
+      <c r="BX36" s="15">
         <f t="shared" si="146"/>
         <v>8.7798486748400739E-2</v>
       </c>
-      <c r="BU36" s="15">
+      <c r="BY36" s="15">
         <f t="shared" si="146"/>
         <v>7.1766336710576972E-2</v>
       </c>
-      <c r="BV36" s="15">
+      <c r="BZ36" s="15">
         <f t="shared" si="146"/>
         <v>6.167758603707818E-2</v>
       </c>
-      <c r="BW36" s="15">
+      <c r="CA36" s="15">
         <f t="shared" si="146"/>
         <v>6.2099101280581381E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:78" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:82" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>123</v>
       </c>
@@ -6989,10 +7049,10 @@
       <c r="AJ37" s="10"/>
       <c r="AK37" s="10"/>
       <c r="AL37" s="10"/>
-      <c r="AQ37" s="15"/>
-      <c r="AR37" s="15"/>
-      <c r="AS37" s="15"/>
-      <c r="AT37" s="15"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
       <c r="AU37" s="15"/>
       <c r="AV37" s="15"/>
       <c r="AW37" s="15"/>
@@ -7022,8 +7082,12 @@
       <c r="BU37" s="15"/>
       <c r="BV37" s="15"/>
       <c r="BW37" s="15"/>
+      <c r="BX37" s="15"/>
+      <c r="BY37" s="15"/>
+      <c r="BZ37" s="15"/>
+      <c r="CA37" s="15"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
@@ -7128,10 +7192,10 @@
         <f t="shared" si="150"/>
         <v>-1</v>
       </c>
-      <c r="BF38" s="13"/>
-      <c r="BG38" s="13"/>
-      <c r="BH38" s="13"/>
-      <c r="BI38" s="13"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
       <c r="BJ38" s="13"/>
       <c r="BK38" s="13"/>
       <c r="BL38" s="13"/>
@@ -7146,8 +7210,12 @@
       <c r="BU38" s="13"/>
       <c r="BV38" s="13"/>
       <c r="BW38" s="13"/>
+      <c r="BX38" s="13"/>
+      <c r="BY38" s="13"/>
+      <c r="BZ38" s="13"/>
+      <c r="CA38" s="13"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -7252,10 +7320,10 @@
         <f t="shared" si="156"/>
         <v>-1</v>
       </c>
-      <c r="BF39" s="13"/>
-      <c r="BG39" s="13"/>
-      <c r="BH39" s="13"/>
-      <c r="BI39" s="13"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="8"/>
       <c r="BJ39" s="13"/>
       <c r="BK39" s="13"/>
       <c r="BL39" s="13"/>
@@ -7270,8 +7338,12 @@
       <c r="BU39" s="13"/>
       <c r="BV39" s="13"/>
       <c r="BW39" s="13"/>
+      <c r="BX39" s="13"/>
+      <c r="BY39" s="13"/>
+      <c r="BZ39" s="13"/>
+      <c r="CA39" s="13"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
@@ -7375,46 +7447,34 @@
         <f t="shared" si="163"/>
         <v>-1</v>
       </c>
-      <c r="BK40" s="13"/>
-      <c r="BL40" s="13">
-        <f t="shared" ref="BL40" si="164">BL11/BK11-1</f>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="8"/>
+      <c r="BO40" s="13"/>
+      <c r="BP40" s="13">
+        <f t="shared" ref="BP40" si="164">BP11/BO11-1</f>
         <v>0.14847097660728359</v>
       </c>
-      <c r="BM40" s="13">
-        <f t="shared" ref="BM40" si="165">BM11/BL11-1</f>
+      <c r="BQ40" s="13">
+        <f t="shared" ref="BQ40" si="165">BQ11/BP11-1</f>
         <v>0.39719073679440986</v>
       </c>
-      <c r="BN40" s="13">
-        <f>BN11/BM11-1</f>
+      <c r="BR40" s="13">
+        <f>BR11/BQ11-1</f>
         <v>0.12529072860769497</v>
       </c>
-      <c r="BO40" s="13">
-        <f t="shared" ref="BO40:BW40" si="166">BO11/BN11-1</f>
+      <c r="BS40" s="13">
+        <f t="shared" ref="BS40:CA40" si="166">BS11/BR11-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
-      <c r="BP40" s="13">
+      <c r="BT40" s="13">
         <f t="shared" si="166"/>
         <v>5.3944473736841081E-2</v>
       </c>
-      <c r="BQ40" s="13">
+      <c r="BU40" s="13">
         <f t="shared" si="166"/>
         <v>6.5367961634005045E-2</v>
-      </c>
-      <c r="BR40" s="13">
-        <f t="shared" si="166"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="BS40" s="13">
-        <f t="shared" si="166"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="BT40" s="13">
-        <f t="shared" si="166"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="BU40" s="13">
-        <f t="shared" si="166"/>
-        <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV40" s="13">
         <f t="shared" si="166"/>
@@ -7424,8 +7484,24 @@
         <f t="shared" si="166"/>
         <v>5.0000000000000044E-2</v>
       </c>
+      <c r="BX40" s="13">
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BY40" s="13">
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BZ40" s="13">
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="CA40" s="13">
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
@@ -7529,46 +7605,34 @@
         <f t="shared" si="169"/>
         <v>-1</v>
       </c>
-      <c r="BK41" s="13"/>
-      <c r="BL41" s="13">
-        <f t="shared" ref="BL41" si="170">BL13/BK13-1</f>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="BO41" s="13"/>
+      <c r="BP41" s="13">
+        <f t="shared" ref="BP41" si="170">BP13/BO13-1</f>
         <v>0.25771435255585451</v>
       </c>
-      <c r="BM41" s="13">
-        <f t="shared" ref="BM41" si="171">BM13/BL13-1</f>
+      <c r="BQ41" s="13">
+        <f t="shared" ref="BQ41" si="171">BQ13/BP13-1</f>
         <v>0.4961961273041795</v>
       </c>
-      <c r="BN41" s="13">
-        <f>BN13/BM13-1</f>
+      <c r="BR41" s="13">
+        <f>BR13/BQ13-1</f>
         <v>0.28505538495965776</v>
       </c>
-      <c r="BO41" s="13">
-        <f t="shared" ref="BO41:BW41" si="172">BO13/BN13-1</f>
+      <c r="BS41" s="13">
+        <f t="shared" ref="BS41:CA41" si="172">BS13/BR13-1</f>
         <v>0.13882708047133496</v>
       </c>
-      <c r="BP41" s="13">
+      <c r="BT41" s="13">
         <f t="shared" si="172"/>
         <v>0.18975330456352579</v>
       </c>
-      <c r="BQ41" s="13">
+      <c r="BU41" s="13">
         <f t="shared" si="172"/>
         <v>0.11490649968226307</v>
-      </c>
-      <c r="BR41" s="13">
-        <f t="shared" si="172"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="BS41" s="13">
-        <f t="shared" si="172"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="BT41" s="13">
-        <f t="shared" si="172"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="BU41" s="13">
-        <f t="shared" si="172"/>
-        <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV41" s="13">
         <f t="shared" si="172"/>
@@ -7578,8 +7642,24 @@
         <f t="shared" si="172"/>
         <v>5.0000000000000044E-2</v>
       </c>
+      <c r="BX41" s="13">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BY41" s="13">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BZ41" s="13">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="CA41" s="13">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
@@ -7683,57 +7763,61 @@
         <f t="shared" si="169"/>
         <v>-1</v>
       </c>
-      <c r="BK42" s="13"/>
-      <c r="BL42" s="13">
-        <f t="shared" ref="BL42" si="175">BL14/BK14-1</f>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="BO42" s="13"/>
+      <c r="BP42" s="13">
+        <f t="shared" ref="BP42" si="175">BP14/BO14-1</f>
         <v>0.35596809486835612</v>
       </c>
-      <c r="BM42" s="13">
-        <f t="shared" ref="BM42" si="176">BM14/BL14-1</f>
+      <c r="BQ42" s="13">
+        <f t="shared" ref="BQ42" si="176">BQ14/BP14-1</f>
         <v>0.31218115564810001</v>
       </c>
-      <c r="BN42" s="13">
-        <f>BN14/BM14-1</f>
+      <c r="BR42" s="13">
+        <f>BR14/BQ14-1</f>
         <v>0.26028484151227826</v>
       </c>
-      <c r="BO42" s="13">
-        <f t="shared" ref="BO42:BW42" si="177">BO14/BN14-1</f>
+      <c r="BS42" s="13">
+        <f t="shared" ref="BS42:CA42" si="177">BS14/BR14-1</f>
         <v>0.10859984890455809</v>
       </c>
-      <c r="BP42" s="13">
+      <c r="BT42" s="13">
         <f t="shared" si="177"/>
         <v>0.14171730365154178</v>
       </c>
-      <c r="BQ42" s="13">
+      <c r="BU42" s="13">
         <f t="shared" si="177"/>
         <v>0.39804521375811386</v>
       </c>
-      <c r="BR42" s="13">
+      <c r="BV42" s="13">
         <f t="shared" si="177"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BS42" s="13">
+      <c r="BW42" s="13">
         <f t="shared" si="177"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BT42" s="13">
+      <c r="BX42" s="13">
         <f t="shared" si="177"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BU42" s="13">
+      <c r="BY42" s="13">
         <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BV42" s="13">
+      <c r="BZ42" s="13">
         <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BW42" s="13">
+      <c r="CA42" s="13">
         <f t="shared" si="177"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
@@ -7837,57 +7921,61 @@
         <f t="shared" si="169"/>
         <v>-1</v>
       </c>
-      <c r="BK43" s="13"/>
-      <c r="BL43" s="13">
-        <f t="shared" ref="BL43" si="179">BL15/BK15-1</f>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="BO43" s="13"/>
+      <c r="BP43" s="13">
+        <f t="shared" ref="BP43" si="179">BP15/BO15-1</f>
         <v>0.39354966363276622</v>
       </c>
-      <c r="BM43" s="13">
-        <f t="shared" ref="BM43:BN43" si="180">BM15/BL15-1</f>
+      <c r="BQ43" s="13">
+        <f t="shared" ref="BQ43:BR43" si="180">BQ15/BP15-1</f>
         <v>0.4819679114013915</v>
       </c>
-      <c r="BN43" s="13">
+      <c r="BR43" s="13">
         <f t="shared" si="180"/>
         <v>0.49269461077844312</v>
       </c>
-      <c r="BO43" s="13">
-        <f t="shared" ref="BO43:BW43" si="181">BO15/BN15-1</f>
+      <c r="BS43" s="13">
+        <f t="shared" ref="BS43:CA43" si="181">BS15/BR15-1</f>
         <v>0.21113607188703476</v>
       </c>
-      <c r="BP43" s="13">
+      <c r="BT43" s="13">
         <f t="shared" si="181"/>
         <v>0.24290521741434601</v>
       </c>
-      <c r="BQ43" s="13">
+      <c r="BU43" s="13">
         <f t="shared" si="181"/>
         <v>-5.3980301027587108E-2</v>
       </c>
-      <c r="BR43" s="13">
+      <c r="BV43" s="13">
         <f t="shared" si="181"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BS43" s="13">
+      <c r="BW43" s="13">
         <f t="shared" si="181"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BT43" s="13">
+      <c r="BX43" s="13">
         <f t="shared" si="181"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BU43" s="13">
+      <c r="BY43" s="13">
         <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BV43" s="13">
+      <c r="BZ43" s="13">
         <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BW43" s="13">
+      <c r="CA43" s="13">
         <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
@@ -7991,72 +8079,76 @@
         <f t="shared" si="191"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BH44" s="13">
-        <f t="shared" ref="BH44:BJ44" si="192">BH9/BG9-1</f>
+      <c r="AM44" s="8"/>
+      <c r="AN44" s="8"/>
+      <c r="AO44" s="8"/>
+      <c r="AP44" s="8"/>
+      <c r="BL44" s="13">
+        <f t="shared" ref="BL44:BN44" si="192">BL9/BK9-1</f>
         <v>0.69681309216192933</v>
       </c>
-      <c r="BI44" s="13">
+      <c r="BM44" s="13">
         <f t="shared" si="192"/>
         <v>0.55063451776649752</v>
       </c>
-      <c r="BJ44" s="13">
+      <c r="BN44" s="13">
         <f t="shared" si="192"/>
         <v>0.42884033063262139</v>
       </c>
-      <c r="BK44" s="13">
-        <f t="shared" ref="BK44" si="193">BK9/BJ9-1</f>
+      <c r="BO44" s="13">
+        <f t="shared" ref="BO44" si="193">BO9/BN9-1</f>
         <v>0.46944269431238905</v>
       </c>
-      <c r="BL44" s="13">
-        <f t="shared" ref="BL44" si="194">BL9/BK9-1</f>
+      <c r="BP44" s="13">
+        <f t="shared" ref="BP44" si="194">BP9/BO9-1</f>
         <v>0.36526992788930035</v>
       </c>
-      <c r="BM44" s="13">
-        <f t="shared" ref="BM44" si="195">BM9/BL9-1</f>
+      <c r="BQ44" s="13">
+        <f t="shared" ref="BQ44" si="195">BQ9/BP9-1</f>
         <v>0.29532347399074976</v>
       </c>
-      <c r="BN44" s="13">
-        <f>BN9/BM9-1</f>
+      <c r="BR44" s="13">
+        <f>BR9/BQ9-1</f>
         <v>0.37099404893101173</v>
       </c>
-      <c r="BO44" s="13">
-        <f t="shared" ref="BO44:BW44" si="196">BO9/BN9-1</f>
+      <c r="BS44" s="13">
+        <f t="shared" ref="BS44:CA44" si="196">BS9/BR9-1</f>
         <v>0.28767563743931057</v>
       </c>
-      <c r="BP44" s="13">
+      <c r="BT44" s="13">
         <f t="shared" si="196"/>
         <v>0.13310277666799841</v>
       </c>
-      <c r="BQ44" s="13">
+      <c r="BU44" s="13">
         <f t="shared" si="196"/>
         <v>0.18509867007503544</v>
       </c>
-      <c r="BR44" s="13">
+      <c r="BV44" s="13">
         <f t="shared" si="196"/>
         <v>0.13430956896872326</v>
       </c>
-      <c r="BS44" s="13">
+      <c r="BW44" s="13">
         <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="BT44" s="13">
+      <c r="BX44" s="13">
         <f t="shared" si="196"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="BU44" s="13">
+      <c r="BY44" s="13">
         <f t="shared" si="196"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="BV44" s="13">
+      <c r="BZ44" s="13">
         <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BW44" s="13">
+      <c r="CA44" s="13">
         <f t="shared" si="196"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="45" spans="2:78" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:82" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
@@ -8183,90 +8275,94 @@
         <f t="shared" si="200"/>
         <v>0.34</v>
       </c>
-      <c r="BG45" s="14">
-        <f t="shared" ref="BG45:BI45" si="201">BG23/BG20</f>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="16"/>
+      <c r="AO45" s="16"/>
+      <c r="AP45" s="16"/>
+      <c r="BK45" s="14">
+        <f t="shared" ref="BK45:BM45" si="201">BK23/BK20</f>
         <v>0.17384366431428958</v>
       </c>
-      <c r="BH45" s="14">
+      <c r="BL45" s="14">
         <f t="shared" si="201"/>
         <v>0.20508195802104554</v>
       </c>
-      <c r="BI45" s="14">
+      <c r="BM45" s="14">
         <f t="shared" si="201"/>
         <v>0.22136674829211617</v>
       </c>
-      <c r="BJ45" s="14">
-        <f t="shared" ref="BJ45" si="202">BJ23/BJ20</f>
+      <c r="BN45" s="14">
+        <f t="shared" ref="BN45" si="202">BN23/BN20</f>
         <v>0.22872836854710848</v>
       </c>
-      <c r="BK45" s="14">
-        <f t="shared" ref="BK45:BL45" si="203">BK23/BK20</f>
+      <c r="BO45" s="14">
+        <f t="shared" ref="BO45:BP45" si="203">BO23/BO20</f>
         <v>0.25636467471348767</v>
       </c>
-      <c r="BL45" s="14">
+      <c r="BP45" s="14">
         <f t="shared" si="203"/>
         <v>0.26648533804835273</v>
       </c>
-      <c r="BM45" s="14">
-        <f t="shared" ref="BM45" si="204">BM23/BM20</f>
+      <c r="BQ45" s="14">
+        <f t="shared" ref="BQ45" si="204">BQ23/BQ20</f>
         <v>0.24410719466202496</v>
       </c>
-      <c r="BN45" s="14">
-        <f>BN23/BN20</f>
+      <c r="BR45" s="14">
+        <f>BR23/BR20</f>
         <v>0.26045395915900066</v>
       </c>
-      <c r="BO45" s="14">
-        <f t="shared" ref="BO45:BW45" si="205">BO23/BO20</f>
+      <c r="BS45" s="14">
+        <f t="shared" ref="BS45:CA45" si="205">BS23/BS20</f>
         <v>0.27404213758042584</v>
       </c>
-      <c r="BP45" s="14">
+      <c r="BT45" s="14">
         <f t="shared" si="205"/>
         <v>0.31216367859286515</v>
       </c>
-      <c r="BQ45" s="14">
+      <c r="BU45" s="14">
         <f t="shared" si="205"/>
         <v>0.28660196031406404</v>
       </c>
-      <c r="BR45" s="14">
+      <c r="BV45" s="14">
         <f t="shared" si="205"/>
         <v>0.29202550579581815</v>
       </c>
-      <c r="BS45" s="14">
+      <c r="BW45" s="14">
         <f t="shared" si="205"/>
         <v>0.29750094367683211</v>
       </c>
-      <c r="BT45" s="14">
+      <c r="BX45" s="14">
         <f t="shared" si="205"/>
         <v>0.3028656198769204</v>
       </c>
-      <c r="BU45" s="14">
+      <c r="BY45" s="14">
         <f t="shared" si="205"/>
         <v>0.30280742244620346</v>
       </c>
-      <c r="BV45" s="14">
+      <c r="BZ45" s="14">
         <f t="shared" si="205"/>
         <v>0.302776543093009</v>
       </c>
-      <c r="BW45" s="14">
+      <c r="CA45" s="14">
         <f t="shared" si="205"/>
         <v>0.30274491358117539</v>
       </c>
-      <c r="BY45" t="s">
+      <c r="CC45" t="s">
         <v>77</v>
       </c>
-      <c r="BZ45" s="13">
+      <c r="CD45" s="13">
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="BY46" t="s">
+    <row r="46" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="CC46" t="s">
         <v>76</v>
       </c>
-      <c r="BZ46" s="13">
+      <c r="CD46" s="13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
@@ -8364,50 +8460,54 @@
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
       <c r="AP47" s="4"/>
-      <c r="BO47" s="2">
-        <f>+BO48-BO61</f>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4"/>
+      <c r="BS47" s="2">
+        <f>+BS48-BS61</f>
         <v>2876</v>
       </c>
-      <c r="BP47" s="2">
-        <f>+BP48-BP61</f>
+      <c r="BT47" s="2">
+        <f>+BT48-BT61</f>
         <v>28466</v>
       </c>
-      <c r="BQ47" s="2">
-        <f>+BQ48-BQ61</f>
+      <c r="BU47" s="2">
+        <f>+BU48-BU61</f>
         <v>48579</v>
       </c>
-      <c r="BR47" s="2">
-        <f t="shared" ref="BR47:BW47" si="211">+BQ47+BR32</f>
+      <c r="BV47" s="2">
+        <f t="shared" ref="BV47:CA47" si="211">+BU47+BV32</f>
         <v>90886.728130000018</v>
       </c>
-      <c r="BS47" s="2">
+      <c r="BW47" s="2">
         <f t="shared" si="211"/>
         <v>147575.41995300498</v>
       </c>
-      <c r="BT47" s="2">
+      <c r="BX47" s="2">
         <f t="shared" si="211"/>
         <v>220948.67022527254</v>
       </c>
-      <c r="BU47" s="2">
+      <c r="BY47" s="2">
         <f t="shared" si="211"/>
         <v>305744.74678757193</v>
       </c>
-      <c r="BV47" s="2">
+      <c r="BZ47" s="2">
         <f t="shared" si="211"/>
         <v>400778.14039390185</v>
       </c>
-      <c r="BW47" s="2">
+      <c r="CA47" s="2">
         <f t="shared" si="211"/>
         <v>506953.13147166232</v>
       </c>
-      <c r="BY47" t="s">
+      <c r="CC47" t="s">
         <v>78</v>
       </c>
-      <c r="BZ47" s="13">
+      <c r="CD47" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -8511,27 +8611,27 @@
         <f>57741+35439</f>
         <v>93180</v>
       </c>
-      <c r="BO48" s="2">
+      <c r="BS48" s="2">
         <f>+Z48</f>
         <v>70026</v>
       </c>
-      <c r="BP48" s="2">
+      <c r="BT48" s="2">
         <f>+AD48</f>
         <v>86780</v>
       </c>
-      <c r="BQ48" s="2">
+      <c r="BU48" s="2">
         <f>+AH48</f>
         <v>101202</v>
       </c>
-      <c r="BY48" s="2" t="s">
+      <c r="CC48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BZ48" s="2">
-        <f>NPV(BZ45,BR32:EI32)+Main!K5-Main!K6</f>
+      <c r="CD48" s="2">
+        <f>NPV(CD45,BV32:EM32)+Main!K5-Main!K6</f>
         <v>1211669.1413828339</v>
       </c>
     </row>
-    <row r="49" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
@@ -8613,24 +8713,24 @@
       <c r="AJ49" s="2">
         <v>57415</v>
       </c>
-      <c r="BO49" s="2">
-        <f t="shared" ref="BO49:BO54" si="212">+Z49</f>
+      <c r="BS49" s="2">
+        <f t="shared" ref="BS49:BS54" si="212">+Z49</f>
         <v>34405</v>
       </c>
-      <c r="BP49" s="2">
-        <f t="shared" ref="BP49:BP54" si="213">+AD49</f>
+      <c r="BT49" s="2">
+        <f t="shared" ref="BT49:BT54" si="213">+AD49</f>
         <v>33318</v>
       </c>
-      <c r="BQ49" s="2">
-        <f t="shared" ref="BQ49:BQ54" si="214">+AH49</f>
+      <c r="BU49" s="2">
+        <f t="shared" ref="BU49:BU54" si="214">+AH49</f>
         <v>34214</v>
       </c>
-      <c r="BZ49" s="1">
-        <f>+BZ48/Main!K3</f>
+      <c r="CD49" s="1">
+        <f>+CD48/Main!K3</f>
         <v>112.12929311334759</v>
       </c>
     </row>
-    <row r="50" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
@@ -8712,20 +8812,20 @@
       <c r="AJ50" s="2">
         <v>40825</v>
       </c>
-      <c r="BO50" s="2">
+      <c r="BS50" s="2">
         <f t="shared" si="212"/>
         <v>42360</v>
       </c>
-      <c r="BP50" s="2">
+      <c r="BT50" s="2">
         <f t="shared" si="213"/>
         <v>52253</v>
       </c>
-      <c r="BQ50" s="2">
+      <c r="BU50" s="2">
         <f t="shared" si="214"/>
         <v>55451</v>
       </c>
     </row>
-    <row r="51" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
@@ -8807,20 +8907,20 @@
       <c r="AJ51" s="2">
         <v>297616</v>
       </c>
-      <c r="BO51" s="2">
+      <c r="BS51" s="2">
         <f t="shared" si="212"/>
         <v>186715</v>
       </c>
-      <c r="BP51" s="2">
+      <c r="BT51" s="2">
         <f t="shared" si="213"/>
         <v>204177</v>
       </c>
-      <c r="BQ51" s="2">
+      <c r="BU51" s="2">
         <f t="shared" si="214"/>
         <v>252665</v>
       </c>
     </row>
-    <row r="52" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
@@ -8902,20 +9002,20 @@
       <c r="AJ52" s="2">
         <v>82125</v>
       </c>
-      <c r="BO52" s="2">
+      <c r="BS52" s="2">
         <f t="shared" si="212"/>
         <v>66123</v>
       </c>
-      <c r="BP52" s="2">
+      <c r="BT52" s="2">
         <f t="shared" si="213"/>
         <v>72513</v>
       </c>
-      <c r="BQ52" s="2">
+      <c r="BU52" s="2">
         <f t="shared" si="214"/>
         <v>76141</v>
       </c>
     </row>
-    <row r="53" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -8998,20 +9098,20 @@
       <c r="AJ53" s="2">
         <v>23155</v>
       </c>
-      <c r="BO53" s="2">
+      <c r="BS53" s="2">
         <f t="shared" si="212"/>
         <v>20288</v>
       </c>
-      <c r="BP53" s="2">
+      <c r="BT53" s="2">
         <f t="shared" si="213"/>
         <v>22789</v>
       </c>
-      <c r="BQ53" s="2">
+      <c r="BU53" s="2">
         <f t="shared" si="214"/>
         <v>23074</v>
       </c>
     </row>
-    <row r="54" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
@@ -9093,20 +9193,20 @@
       <c r="AJ54" s="2">
         <v>87854</v>
       </c>
-      <c r="BO54" s="2">
+      <c r="BS54" s="2">
         <f t="shared" si="212"/>
         <v>42758</v>
       </c>
-      <c r="BP54" s="2">
+      <c r="BT54" s="2">
         <f t="shared" si="213"/>
         <v>56024</v>
       </c>
-      <c r="BQ54" s="2">
+      <c r="BU54" s="2">
         <f t="shared" si="214"/>
         <v>82147</v>
       </c>
     </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -9210,20 +9310,20 @@
         <f t="shared" si="219"/>
         <v>682170</v>
       </c>
-      <c r="BO55" s="2">
-        <f>SUM(BO48:BO54)</f>
+      <c r="BS55" s="2">
+        <f>SUM(BS48:BS54)</f>
         <v>462675</v>
       </c>
-      <c r="BP55" s="2">
-        <f>SUM(BP48:BP54)</f>
+      <c r="BT55" s="2">
+        <f>SUM(BT48:BT54)</f>
         <v>527854</v>
       </c>
-      <c r="BQ55" s="2">
-        <f>SUM(BQ48:BQ54)</f>
+      <c r="BU55" s="2">
+        <f>SUM(BU48:BU54)</f>
         <v>624894</v>
       </c>
     </row>
-    <row r="57" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
@@ -9305,20 +9405,20 @@
       <c r="AJ57" s="2">
         <v>98285</v>
       </c>
-      <c r="BO57" s="2">
-        <f t="shared" ref="BO57:BO63" si="220">+Z57</f>
+      <c r="BS57" s="2">
+        <f t="shared" ref="BS57:BS63" si="220">+Z57</f>
         <v>79600</v>
       </c>
-      <c r="BP57" s="2">
-        <f t="shared" ref="BP57:BP63" si="221">+AD57</f>
+      <c r="BT57" s="2">
+        <f t="shared" ref="BT57:BT63" si="221">+AD57</f>
         <v>84981</v>
       </c>
-      <c r="BQ57" s="2">
-        <f t="shared" ref="BQ57:BQ63" si="222">+AH57</f>
+      <c r="BU57" s="2">
+        <f t="shared" ref="BU57:BU63" si="222">+AH57</f>
         <v>94363</v>
       </c>
     </row>
-    <row r="58" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
@@ -9400,20 +9500,20 @@
       <c r="AJ58" s="2">
         <v>66974</v>
       </c>
-      <c r="BO58" s="2">
+      <c r="BS58" s="2">
         <f t="shared" si="220"/>
         <v>62566</v>
       </c>
-      <c r="BP58" s="2">
+      <c r="BT58" s="2">
         <f t="shared" si="221"/>
         <v>64709</v>
       </c>
-      <c r="BQ58" s="2">
+      <c r="BU58" s="2">
         <f t="shared" si="222"/>
         <v>66965</v>
       </c>
     </row>
-    <row r="59" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
@@ -9495,20 +9595,20 @@
       <c r="AJ59" s="2">
         <v>21662</v>
       </c>
-      <c r="BO59" s="2">
+      <c r="BS59" s="2">
         <f t="shared" si="220"/>
         <v>13227</v>
       </c>
-      <c r="BP59" s="2">
+      <c r="BT59" s="2">
         <f t="shared" si="221"/>
         <v>15227</v>
       </c>
-      <c r="BQ59" s="2">
+      <c r="BU59" s="2">
         <f t="shared" si="222"/>
         <v>18103</v>
       </c>
     </row>
-    <row r="60" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
@@ -9590,20 +9690,20 @@
       <c r="AJ60" s="2">
         <v>83221</v>
       </c>
-      <c r="BO60" s="2">
+      <c r="BS60" s="2">
         <f t="shared" si="220"/>
         <v>72968</v>
       </c>
-      <c r="BP60" s="2">
+      <c r="BT60" s="2">
         <f t="shared" si="221"/>
         <v>77297</v>
       </c>
-      <c r="BQ60" s="2">
+      <c r="BU60" s="2">
         <f t="shared" si="222"/>
         <v>78277</v>
       </c>
     </row>
-    <row r="61" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
@@ -9685,20 +9785,20 @@
       <c r="AJ61" s="2">
         <v>50718</v>
       </c>
-      <c r="BO61" s="2">
+      <c r="BS61" s="2">
         <f t="shared" si="220"/>
         <v>67150</v>
       </c>
-      <c r="BP61" s="2">
+      <c r="BT61" s="2">
         <f t="shared" si="221"/>
         <v>58314</v>
       </c>
-      <c r="BQ61" s="2">
+      <c r="BU61" s="2">
         <f t="shared" si="222"/>
         <v>52623</v>
       </c>
     </row>
-    <row r="62" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
@@ -9780,20 +9880,20 @@
       <c r="AJ62" s="2">
         <v>27535</v>
       </c>
-      <c r="BO62" s="2">
+      <c r="BS62" s="2">
         <f t="shared" si="220"/>
         <v>21121</v>
       </c>
-      <c r="BP62" s="2">
+      <c r="BT62" s="2">
         <f t="shared" si="221"/>
         <v>25451</v>
       </c>
-      <c r="BQ62" s="2">
+      <c r="BU62" s="2">
         <f t="shared" si="222"/>
         <v>28593</v>
       </c>
     </row>
-    <row r="63" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
@@ -9875,20 +9975,20 @@
       <c r="AJ63" s="2">
         <v>333775</v>
       </c>
-      <c r="BO63" s="2">
+      <c r="BS63" s="2">
         <f t="shared" si="220"/>
         <v>146043</v>
       </c>
-      <c r="BP63" s="2">
+      <c r="BT63" s="2">
         <f t="shared" si="221"/>
         <v>201875</v>
       </c>
-      <c r="BQ63" s="2">
+      <c r="BU63" s="2">
         <f t="shared" si="222"/>
         <v>285970</v>
       </c>
     </row>
-    <row r="64" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -9992,20 +10092,20 @@
         <f>SUM(AJ57:AJ63)</f>
         <v>682170</v>
       </c>
-      <c r="BO64" s="2">
-        <f>SUM(BO57:BO63)</f>
+      <c r="BS64" s="2">
+        <f>SUM(BS57:BS63)</f>
         <v>462675</v>
       </c>
-      <c r="BP64" s="2">
-        <f>SUM(BP57:BP63)</f>
+      <c r="BT64" s="2">
+        <f>SUM(BT57:BT63)</f>
         <v>527854</v>
       </c>
-      <c r="BQ64" s="2">
-        <f>SUM(BQ57:BQ63)</f>
+      <c r="BU64" s="2">
+        <f>SUM(BU57:BU63)</f>
         <v>624894</v>
       </c>
     </row>
-    <row r="66" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
@@ -10109,20 +10209,20 @@
         <f>+AJ32</f>
         <v>18164</v>
       </c>
-      <c r="BO66" s="2">
-        <f>+BO32</f>
+      <c r="BS66" s="2">
+        <f>+BS32</f>
         <v>5257</v>
       </c>
-      <c r="BP66" s="2">
-        <f>+BP32</f>
+      <c r="BT66" s="2">
+        <f>+BT32</f>
         <v>30425</v>
       </c>
-      <c r="BQ66" s="2">
-        <f>+BQ32</f>
+      <c r="BU66" s="2">
+        <f>+BU32</f>
         <v>31503.311999999976</v>
       </c>
     </row>
-    <row r="67" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -10204,20 +10304,20 @@
       <c r="AJ67" s="2">
         <v>18164</v>
       </c>
-      <c r="BO67" s="2">
+      <c r="BS67" s="2">
         <f>SUM(W67:Z67)</f>
         <v>-2722</v>
       </c>
-      <c r="BP67" s="2">
-        <f t="shared" ref="BP67:BP73" si="231">SUM(AA67:AD67)</f>
+      <c r="BT67" s="2">
+        <f t="shared" ref="BT67:BT73" si="231">SUM(AA67:AD67)</f>
         <v>30425</v>
       </c>
-      <c r="BQ67" s="2">
+      <c r="BU67" s="2">
         <f>SUM(AE67:AH67)</f>
         <v>59248</v>
       </c>
     </row>
-    <row r="68" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
@@ -10299,20 +10399,20 @@
       <c r="AJ68" s="2">
         <v>15227</v>
       </c>
-      <c r="BO68" s="2">
-        <f t="shared" ref="BO68:BO73" si="232">SUM(W68:Z68)</f>
+      <c r="BS68" s="2">
+        <f t="shared" ref="BS68:BS73" si="232">SUM(W68:Z68)</f>
         <v>41461</v>
       </c>
-      <c r="BP68" s="2">
+      <c r="BT68" s="2">
         <f t="shared" si="231"/>
         <v>48663</v>
       </c>
-      <c r="BQ68" s="2">
-        <f t="shared" ref="BQ68:BQ72" si="233">SUM(AE68:AH68)</f>
+      <c r="BU68" s="2">
+        <f t="shared" ref="BU68:BU72" si="233">SUM(AE68:AH68)</f>
         <v>52795</v>
       </c>
     </row>
-    <row r="69" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
@@ -10394,20 +10494,20 @@
       <c r="AJ69" s="2">
         <v>6534</v>
       </c>
-      <c r="BO69" s="2">
+      <c r="BS69" s="2">
         <f t="shared" si="232"/>
         <v>19621</v>
       </c>
-      <c r="BP69" s="2">
+      <c r="BT69" s="2">
         <f t="shared" si="231"/>
         <v>24023</v>
       </c>
-      <c r="BQ69" s="2">
+      <c r="BU69" s="2">
         <f t="shared" si="233"/>
         <v>22011</v>
       </c>
     </row>
-    <row r="70" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
@@ -10489,20 +10589,20 @@
       <c r="AJ70" s="2">
         <v>-1258</v>
       </c>
-      <c r="BO70" s="2">
+      <c r="BS70" s="2">
         <f t="shared" si="232"/>
         <v>3905</v>
       </c>
-      <c r="BP70" s="2">
+      <c r="BT70" s="2">
         <f t="shared" si="231"/>
         <v>-748</v>
       </c>
-      <c r="BQ70" s="2">
+      <c r="BU70" s="2">
         <f t="shared" si="233"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="71" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
@@ -10566,20 +10666,20 @@
       <c r="AD71" s="2">
         <v>0</v>
       </c>
-      <c r="BO71" s="2">
+      <c r="BS71" s="2">
         <f t="shared" si="232"/>
         <v>13521</v>
       </c>
-      <c r="BP71" s="2">
+      <c r="BT71" s="2">
         <f t="shared" si="231"/>
         <v>0</v>
       </c>
-      <c r="BQ71" s="2">
+      <c r="BU71" s="2">
         <f t="shared" si="233"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
@@ -10661,20 +10761,20 @@
       <c r="AJ72" s="2">
         <v>11</v>
       </c>
-      <c r="BO72" s="2">
+      <c r="BS72" s="2">
         <f t="shared" si="232"/>
         <v>-8148</v>
       </c>
-      <c r="BP72" s="2">
+      <c r="BT72" s="2">
         <f t="shared" si="231"/>
         <v>-5876</v>
       </c>
-      <c r="BQ72" s="2">
+      <c r="BU72" s="2">
         <f t="shared" si="233"/>
         <v>-4648</v>
       </c>
     </row>
-    <row r="73" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
@@ -10778,20 +10878,20 @@
         <f>-4054-1125-2971+7058-4952-119</f>
         <v>-6163</v>
       </c>
-      <c r="BO73" s="2">
+      <c r="BS73" s="2">
         <f t="shared" si="232"/>
         <v>-20886</v>
       </c>
-      <c r="BP73" s="2">
+      <c r="BT73" s="2">
         <f t="shared" si="231"/>
         <v>-11541</v>
       </c>
-      <c r="BQ73" s="2">
+      <c r="BU73" s="2">
         <f>SUM(AE73:AH73)</f>
         <v>-15541</v>
       </c>
     </row>
-    <row r="74" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
@@ -10895,29 +10995,29 @@
         <f t="shared" si="235"/>
         <v>32515</v>
       </c>
-      <c r="AT74" s="2">
+      <c r="AX74" s="2">
         <v>-119.782</v>
       </c>
-      <c r="AU74" s="2">
+      <c r="AY74" s="2">
         <v>174.291</v>
       </c>
-      <c r="AV74" s="2">
+      <c r="AZ74" s="2">
         <v>392.02199999999999</v>
       </c>
-      <c r="BO74" s="2">
-        <f>SUM(BO67:BO73)</f>
+      <c r="BS74" s="2">
+        <f>SUM(BS67:BS73)</f>
         <v>46752</v>
       </c>
-      <c r="BP74" s="2">
-        <f>SUM(BP67:BP73)</f>
+      <c r="BT74" s="2">
+        <f>SUM(BT67:BT73)</f>
         <v>84946</v>
       </c>
-      <c r="BQ74" s="2">
-        <f>SUM(BQ67:BQ73)</f>
+      <c r="BU74" s="2">
+        <f>SUM(BU67:BU73)</f>
         <v>115877</v>
       </c>
     </row>
-    <row r="75" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -10943,7 +11043,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
@@ -11033,24 +11133,24 @@
         <f>+AK76</f>
         <v>-32183</v>
       </c>
-      <c r="BO76" s="2">
-        <f t="shared" ref="BO76:BO79" si="236">SUM(W76:Z76)</f>
+      <c r="BS76" s="2">
+        <f t="shared" ref="BS76:BS79" si="236">SUM(W76:Z76)</f>
         <v>-63645</v>
       </c>
-      <c r="BP76" s="2">
+      <c r="BT76" s="2">
         <f>SUM(AA76:AD76)</f>
         <v>-52729</v>
       </c>
-      <c r="BQ76" s="2">
-        <f t="shared" ref="BQ76:BQ79" si="237">SUM(AE76:AH76)</f>
+      <c r="BU76" s="2">
+        <f t="shared" ref="BU76:BU79" si="237">SUM(AE76:AH76)</f>
         <v>-82999</v>
       </c>
-      <c r="BR76" s="2">
+      <c r="BV76" s="2">
         <f>SUM(AI76:AL76)</f>
         <v>-121568</v>
       </c>
     </row>
-    <row r="77" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
@@ -11132,20 +11232,20 @@
       <c r="AJ77" s="2">
         <v>815</v>
       </c>
-      <c r="BO77" s="2">
+      <c r="BS77" s="2">
         <f t="shared" si="236"/>
         <v>5324</v>
       </c>
-      <c r="BP77" s="2">
-        <f t="shared" ref="BP77:BP79" si="238">SUM(AA77:AD77)</f>
+      <c r="BT77" s="2">
+        <f t="shared" ref="BT77:BT79" si="238">SUM(AA77:AD77)</f>
         <v>4596</v>
       </c>
-      <c r="BQ77" s="2">
+      <c r="BU77" s="2">
         <f t="shared" si="237"/>
         <v>5341</v>
       </c>
     </row>
-    <row r="78" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
@@ -11227,20 +11327,20 @@
       <c r="AJ78" s="2">
         <v>-1700</v>
       </c>
-      <c r="BO78" s="2">
+      <c r="BS78" s="2">
         <f t="shared" si="236"/>
         <v>-8316</v>
       </c>
-      <c r="BP78" s="2">
+      <c r="BT78" s="2">
         <f t="shared" si="238"/>
         <v>-5839</v>
       </c>
-      <c r="BQ78" s="2">
+      <c r="BU78" s="2">
         <f t="shared" si="237"/>
         <v>-7082</v>
       </c>
     </row>
-    <row r="79" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
@@ -11344,20 +11444,20 @@
         <f>11441-17797</f>
         <v>-6356</v>
       </c>
-      <c r="BO79" s="2">
+      <c r="BS79" s="2">
         <f t="shared" si="236"/>
         <v>29036</v>
       </c>
-      <c r="BP79" s="2">
+      <c r="BT79" s="2">
         <f t="shared" si="238"/>
         <v>4139</v>
       </c>
-      <c r="BQ79" s="2">
+      <c r="BU79" s="2">
         <f t="shared" si="237"/>
         <v>-9602</v>
       </c>
     </row>
-    <row r="80" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:74" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
@@ -11461,20 +11561,20 @@
         <f t="shared" si="240"/>
         <v>-39424</v>
       </c>
-      <c r="BO80" s="2">
-        <f>SUM(BO76:BO79)</f>
+      <c r="BS80" s="2">
+        <f>SUM(BS76:BS79)</f>
         <v>-37601</v>
       </c>
-      <c r="BP80" s="2">
-        <f>SUM(BP76:BP79)</f>
+      <c r="BT80" s="2">
+        <f>SUM(BT76:BT79)</f>
         <v>-49833</v>
       </c>
-      <c r="BQ80" s="2">
-        <f>SUM(BQ76:BQ79)</f>
+      <c r="BU80" s="2">
+        <f>SUM(BU76:BU79)</f>
         <v>-94342</v>
       </c>
     </row>
-    <row r="81" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -11500,7 +11600,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
@@ -11582,20 +11682,20 @@
       <c r="AJ82" s="2">
         <v>0</v>
       </c>
-      <c r="BO82" s="2">
-        <f t="shared" ref="BO82:BO85" si="241">SUM(W82:Z82)</f>
+      <c r="BS82" s="2">
+        <f t="shared" ref="BS82:BS85" si="241">SUM(W82:Z82)</f>
         <v>-6000</v>
       </c>
-      <c r="BP82" s="2">
-        <f t="shared" ref="BP82:BP83" si="242">SUM(AA82:AD82)</f>
+      <c r="BT82" s="2">
+        <f t="shared" ref="BT82:BT83" si="242">SUM(AA82:AD82)</f>
         <v>0</v>
       </c>
-      <c r="BQ82" s="2">
-        <f t="shared" ref="BQ82:BQ85" si="243">SUM(AE82:AH82)</f>
+      <c r="BU82" s="2">
+        <f t="shared" ref="BU82:BU85" si="243">SUM(AE82:AH82)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
@@ -11699,20 +11799,20 @@
         <f>2093-1392-2751-411-78</f>
         <v>-2539</v>
       </c>
-      <c r="BO83" s="2">
+      <c r="BS83" s="2">
         <f t="shared" si="241"/>
         <v>15718</v>
       </c>
-      <c r="BP83" s="2">
+      <c r="BT83" s="2">
         <f t="shared" si="242"/>
         <v>-15879</v>
       </c>
-      <c r="BQ83" s="2">
+      <c r="BU83" s="2">
         <f t="shared" si="243"/>
         <v>-11812</v>
       </c>
     </row>
-    <row r="84" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
@@ -11816,20 +11916,20 @@
         <f t="shared" si="245"/>
         <v>-2539</v>
       </c>
-      <c r="BO84" s="2">
-        <f>+BO83+BO82</f>
+      <c r="BS84" s="2">
+        <f>+BS83+BS82</f>
         <v>9718</v>
       </c>
-      <c r="BP84" s="2">
-        <f>+BP83+BP82</f>
+      <c r="BT84" s="2">
+        <f>+BT83+BT82</f>
         <v>-15879</v>
       </c>
-      <c r="BQ84" s="2">
-        <f>+BQ83+BQ82</f>
+      <c r="BU84" s="2">
+        <f>+BU83+BU82</f>
         <v>-11812</v>
       </c>
     </row>
-    <row r="85" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
@@ -11911,20 +12011,20 @@
       <c r="AJ85" s="2">
         <v>1008</v>
       </c>
-      <c r="BO85" s="2">
+      <c r="BS85" s="2">
         <f t="shared" si="241"/>
         <v>-1093</v>
       </c>
-      <c r="BP85" s="2">
+      <c r="BT85" s="2">
         <f>SUM(AA85:AD85)</f>
         <v>403</v>
       </c>
-      <c r="BQ85" s="2">
+      <c r="BU85" s="2">
         <f t="shared" si="243"/>
         <v>-1301</v>
       </c>
     </row>
-    <row r="86" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
@@ -12028,20 +12128,20 @@
         <f t="shared" si="247"/>
         <v>-8440</v>
       </c>
-      <c r="BO86" s="2">
-        <f>+BO85+BO84+BO80+BO74</f>
+      <c r="BS86" s="2">
+        <f>+BS85+BS84+BS80+BS74</f>
         <v>17776</v>
       </c>
-      <c r="BP86" s="2">
-        <f>+BP85+BP84+BP80+BP74</f>
+      <c r="BT86" s="2">
+        <f>+BT85+BT84+BT80+BT74</f>
         <v>19637</v>
       </c>
-      <c r="BQ86" s="2">
-        <f>+BQ85+BQ84+BQ80+BQ74</f>
+      <c r="BU86" s="2">
+        <f>+BU85+BU84+BU80+BU74</f>
         <v>8422</v>
       </c>
     </row>
-    <row r="88" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
@@ -12133,23 +12233,23 @@
       <c r="AJ88" s="2">
         <v>1546</v>
       </c>
-      <c r="AQ88" s="2">
+      <c r="AU88" s="2">
         <v>2.1</v>
       </c>
-      <c r="BO88" s="2">
+      <c r="BS88" s="2">
         <f>Z88</f>
         <v>1541</v>
       </c>
-      <c r="BP88" s="2">
+      <c r="BT88" s="2">
         <f>+AD88</f>
         <v>1525</v>
       </c>
-      <c r="BQ88" s="2">
+      <c r="BU88" s="2">
         <f>+AH88</f>
         <v>1556</v>
       </c>
     </row>
-    <row r="90" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
@@ -12234,7 +12334,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="91" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>82</v>
       </c>
@@ -12319,7 +12419,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="92" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>83</v>
       </c>
@@ -12404,7 +12504,7 @@
         <v>10160</v>
       </c>
     </row>
-    <row r="93" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>154</v>
       </c>
@@ -12451,7 +12551,7 @@
         <v>23370</v>
       </c>
     </row>
-    <row r="95" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>102</v>
       </c>
@@ -12543,16 +12643,16 @@
         <f>+AJ74+AJ76+AJ77</f>
         <v>1147</v>
       </c>
-      <c r="BP95" s="2">
-        <f>+BP74+BP76</f>
+      <c r="BT95" s="2">
+        <f>+BT74+BT76</f>
         <v>32217</v>
       </c>
-      <c r="BQ95" s="2">
-        <f>+BQ74+BQ76</f>
+      <c r="BU95" s="2">
+        <f>+BU74+BU76</f>
         <v>32878</v>
       </c>
     </row>
-    <row r="96" spans="2:69" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:73" ht="13" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>107</v>
       </c>
@@ -12633,7 +12733,7 @@
         <v>18184</v>
       </c>
     </row>
-    <row r="102" spans="2:69" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -12673,36 +12773,36 @@
       <c r="AI102" s="1">
         <v>190.26</v>
       </c>
-      <c r="AP102">
+      <c r="AT102">
         <v>7.25</v>
       </c>
-      <c r="AQ102">
+      <c r="AU102">
         <v>28.73</v>
       </c>
-      <c r="AR102" s="1">
-        <f>11495/AR34</f>
+      <c r="AV102" s="1">
+        <f>11495/AV34</f>
         <v>71.354583558045434</v>
       </c>
-      <c r="BO102" s="1">
+      <c r="BS102" s="1">
         <f>+Z102</f>
         <v>84</v>
       </c>
-      <c r="BP102" s="1">
+      <c r="BT102" s="1">
         <f>+AD102</f>
         <v>151.94</v>
       </c>
-      <c r="BQ102" s="1">
+      <c r="BU102" s="1">
         <f>+AH102</f>
         <v>219.39</v>
       </c>
     </row>
-    <row r="103" spans="2:69" ht="13" x14ac:dyDescent="0.3">
-      <c r="BP103" s="19">
-        <f>+BP102/BO102-1</f>
+    <row r="103" spans="2:73" ht="13" x14ac:dyDescent="0.3">
+      <c r="BT103" s="19">
+        <f>+BT102/BS102-1</f>
         <v>0.80880952380952387</v>
       </c>
-      <c r="BQ103" s="19">
-        <f>+BQ102/BP102-1</f>
+      <c r="BU103" s="19">
+        <f>+BU102/BT102-1</f>
         <v>0.44392523364485981</v>
       </c>
     </row>
